--- a/results/df-wa-fa.xlsx
+++ b/results/df-wa-fa.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>PA5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PA3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PA1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PA3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PA4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PA2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PA4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PA5</t>
         </is>
       </c>
     </row>
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>-6.704758071142996</v>
+        <v>1.484292820072129</v>
       </c>
       <c r="C2">
-        <v>-2.9849864702667</v>
+        <v>7.766254122361525</v>
       </c>
       <c r="D2">
-        <v>-12.85618129874885</v>
+        <v>21.42338294062885</v>
       </c>
       <c r="E2">
-        <v>-11.88662589821254</v>
+        <v>-37.17839989213532</v>
       </c>
       <c r="F2">
-        <v>-59.2706823140728</v>
+        <v>-34.3803140371733</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>-42.88807395120055</v>
+        <v>-15.28771981963644</v>
       </c>
       <c r="C3">
-        <v>-30.98433737504531</v>
+        <v>-2.043989946310269</v>
       </c>
       <c r="D3">
-        <v>20.82524913305958</v>
+        <v>10.35337284577383</v>
       </c>
       <c r="E3">
-        <v>-53.16572586986187</v>
+        <v>-105.2710824772989</v>
       </c>
       <c r="F3">
-        <v>-94.86436447966625</v>
+        <v>-29.99453119831436</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>-2.512601564352158</v>
+        <v>3.793724438016572</v>
       </c>
       <c r="C4">
-        <v>3.686798014116036</v>
+        <v>11.70155786068527</v>
       </c>
       <c r="D4">
-        <v>2.726159628341084</v>
+        <v>24.13845363980899</v>
       </c>
       <c r="E4">
-        <v>-4.392143158735461</v>
+        <v>-34.53732022927524</v>
       </c>
       <c r="F4">
-        <v>-52.01720498429279</v>
+        <v>-11.63271617616948</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>-63.60786203789925</v>
+        <v>-21.62862490443728</v>
       </c>
       <c r="C5">
-        <v>-51.50450856728934</v>
+        <v>-9.910424927333651</v>
       </c>
       <c r="D5">
-        <v>41.32224893075648</v>
+        <v>14.18582752945935</v>
       </c>
       <c r="E5">
-        <v>-78.39436922793213</v>
+        <v>-158.0744156658091</v>
       </c>
       <c r="F5">
-        <v>-136.3172228889155</v>
+        <v>-34.76002309902154</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>-35.99468542141629</v>
+        <v>-17.76045392243708</v>
       </c>
       <c r="C6">
-        <v>-25.3224884497292</v>
+        <v>-5.232462677339868</v>
       </c>
       <c r="D6">
-        <v>10.25590397121861</v>
+        <v>18.21675910902351</v>
       </c>
       <c r="E6">
-        <v>-32.18758172696059</v>
+        <v>-79.51994100280844</v>
       </c>
       <c r="F6">
-        <v>-81.70157574503804</v>
+        <v>-29.1257790504998</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>-38.40170901559964</v>
+        <v>-19.77067571822382</v>
       </c>
       <c r="C7">
-        <v>-38.6260716587159</v>
+        <v>-14.14505462290257</v>
       </c>
       <c r="D7">
-        <v>-60.62093177676305</v>
+        <v>7.172001249465415</v>
       </c>
       <c r="E7">
-        <v>-48.3291630044298</v>
+        <v>-63.22687314463936</v>
       </c>
       <c r="F7">
-        <v>-90.90471129727132</v>
+        <v>-115.0456089324424</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>-6.11386114683225</v>
+        <v>6.163599331139281</v>
       </c>
       <c r="C8">
-        <v>-7.871829166189255</v>
+        <v>6.274545762301711</v>
       </c>
       <c r="D8">
-        <v>-17.71718854055465</v>
+        <v>24.64407947981325</v>
       </c>
       <c r="E8">
-        <v>-18.80641356180539</v>
+        <v>-47.9718300371324</v>
       </c>
       <c r="F8">
-        <v>-75.00815661299335</v>
+        <v>-48.23137655739144</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>-38.77622997353316</v>
+        <v>-28.89708699347063</v>
       </c>
       <c r="C9">
-        <v>-29.71968753544394</v>
+        <v>-19.0691658909336</v>
       </c>
       <c r="D9">
-        <v>13.56865875422099</v>
+        <v>26.76888534741698</v>
       </c>
       <c r="E9">
-        <v>-10.76412095953631</v>
+        <v>-62.40362572222662</v>
       </c>
       <c r="F9">
-        <v>-68.66245020127774</v>
+        <v>-16.98012229159768</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>-5.350044821306352</v>
+        <v>12.38497430994193</v>
       </c>
       <c r="C10">
-        <v>-9.524463436333924</v>
+        <v>10.7234193928864</v>
       </c>
       <c r="D10">
-        <v>-27.54596313570691</v>
+        <v>30.62028034715426</v>
       </c>
       <c r="E10">
-        <v>-29.00811431354381</v>
+        <v>-64.33099755230771</v>
       </c>
       <c r="F10">
-        <v>-101.1624807033494</v>
+        <v>-69.81765046808548</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.1068071337458088</v>
+        <v>5.883784813099602</v>
       </c>
       <c r="C11">
-        <v>25.59790516768597</v>
+        <v>38.91464712762979</v>
       </c>
       <c r="D11">
-        <v>-6.003151027375653</v>
+        <v>35.87829982731672</v>
       </c>
       <c r="E11">
-        <v>-4.155836160182531</v>
+        <v>-43.2187322805549</v>
       </c>
       <c r="F11">
-        <v>-75.70195809983125</v>
+        <v>-18.2100613073195</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>-19.28138634296046</v>
+        <v>2.177551995229592</v>
       </c>
       <c r="C12">
-        <v>-24.48401474981322</v>
+        <v>-2.242662579399413</v>
       </c>
       <c r="D12">
-        <v>-16.28828665438244</v>
+        <v>-0.2102101280767469</v>
       </c>
       <c r="E12">
-        <v>-47.06341640691581</v>
+        <v>-63.36721411762462</v>
       </c>
       <c r="F12">
-        <v>-67.41318936790498</v>
+        <v>-58.64793647948738</v>
       </c>
     </row>
     <row r="13">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>-11.72946834541467</v>
+        <v>3.240368639465929</v>
       </c>
       <c r="C13">
-        <v>-5.978123687853683</v>
+        <v>12.89006187491449</v>
       </c>
       <c r="D13">
-        <v>-19.06261359478003</v>
+        <v>26.09020865057447</v>
       </c>
       <c r="E13">
-        <v>-25.80586042132636</v>
+        <v>-60.43362603937094</v>
       </c>
       <c r="F13">
-        <v>-88.44914606097503</v>
+        <v>-54.06854243121995</v>
       </c>
     </row>
     <row r="14">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>4.397991658230481</v>
+        <v>22.08559964692223</v>
       </c>
       <c r="C14">
-        <v>-4.813638811735371</v>
+        <v>13.69783210800481</v>
       </c>
       <c r="D14">
-        <v>-21.29308089987418</v>
+        <v>27.67240521124643</v>
       </c>
       <c r="E14">
-        <v>-27.48564784730231</v>
+        <v>-58.00431164924035</v>
       </c>
       <c r="F14">
-        <v>-91.37606590377359</v>
+        <v>-59.3294174758344</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>-59.52452459916885</v>
+        <v>-20.10060057414776</v>
       </c>
       <c r="C15">
-        <v>-48.12446079368704</v>
+        <v>-8.901186276251146</v>
       </c>
       <c r="D15">
-        <v>36.8806855236607</v>
+        <v>8.445230171560624</v>
       </c>
       <c r="E15">
-        <v>-75.8931270921714</v>
+        <v>-145.3101340347594</v>
       </c>
       <c r="F15">
-        <v>-122.0639262785112</v>
+        <v>-33.51610289814383</v>
       </c>
     </row>
     <row r="16">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>-24.41172080674063</v>
+        <v>-17.8402726891192</v>
       </c>
       <c r="C16">
-        <v>-13.58088352283336</v>
+        <v>-5.076981530994272</v>
       </c>
       <c r="D16">
-        <v>7.772574857216084</v>
+        <v>25.07392071251359</v>
       </c>
       <c r="E16">
-        <v>-5.467475829772749</v>
+        <v>-46.38374469867683</v>
       </c>
       <c r="F16">
-        <v>-57.39591329461119</v>
+        <v>-12.95008640504132</v>
       </c>
     </row>
     <row r="17">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>-11.44239563553537</v>
+        <v>-4.313381854742774</v>
       </c>
       <c r="C17">
-        <v>-2.015515860106986</v>
+        <v>8.435746286333853</v>
       </c>
       <c r="D17">
-        <v>-6.554415993129318</v>
+        <v>31.68472604154339</v>
       </c>
       <c r="E17">
-        <v>-5.863860804218392</v>
+        <v>-44.46327636082798</v>
       </c>
       <c r="F17">
-        <v>-70.63057677466922</v>
+        <v>-28.30784691269859</v>
       </c>
     </row>
     <row r="18">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>3.518040166669925</v>
+        <v>11.42723982599218</v>
       </c>
       <c r="C18">
-        <v>24.9131729344707</v>
+        <v>39.56162476135608</v>
       </c>
       <c r="D18">
-        <v>-7.298867080929379</v>
+        <v>28.18269272337582</v>
       </c>
       <c r="E18">
-        <v>-10.83891928515778</v>
+        <v>-41.99324870988275</v>
       </c>
       <c r="F18">
-        <v>-69.73805676143793</v>
+        <v>-20.59672673731586</v>
       </c>
     </row>
     <row r="19">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>-11.08368405775144</v>
+        <v>1.201516470414097</v>
       </c>
       <c r="C19">
-        <v>-9.37468605427755</v>
+        <v>4.119843847350372</v>
       </c>
       <c r="D19">
-        <v>-2.49886210853583</v>
+        <v>30.63829586022163</v>
       </c>
       <c r="E19">
-        <v>-14.56104473591326</v>
+        <v>-56.30895794182062</v>
       </c>
       <c r="F19">
-        <v>-79.53042320863294</v>
+        <v>-32.59711971901717</v>
       </c>
     </row>
     <row r="20">
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>-40.08401720522409</v>
+        <v>-30.41576143243622</v>
       </c>
       <c r="C20">
-        <v>-24.34095085816004</v>
+        <v>-11.11639035750936</v>
       </c>
       <c r="D20">
-        <v>-1.784790709845121</v>
+        <v>-17.48524683693836</v>
       </c>
       <c r="E20">
-        <v>-31.97835538840725</v>
+        <v>-36.65232843644355</v>
       </c>
       <c r="F20">
-        <v>-15.89579376918225</v>
+        <v>-21.46612581425085</v>
       </c>
     </row>
     <row r="21">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>-62.21017356599007</v>
+        <v>-18.02792979728129</v>
       </c>
       <c r="C21">
-        <v>-50.33369313159891</v>
+        <v>-6.507983132858945</v>
       </c>
       <c r="D21">
-        <v>41.70088615608078</v>
+        <v>13.71241735769186</v>
       </c>
       <c r="E21">
-        <v>-82.95094720598047</v>
+        <v>-163.330241696735</v>
       </c>
       <c r="F21">
-        <v>-141.3899719839049</v>
+        <v>-36.89723384579905</v>
       </c>
     </row>
     <row r="22">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>-1.786591829815553</v>
+        <v>12.25646780122948</v>
       </c>
       <c r="C22">
-        <v>-4.857679638297913</v>
+        <v>7.934460661816857</v>
       </c>
       <c r="D22">
-        <v>12.62352956526175</v>
+        <v>21.80914787051592</v>
       </c>
       <c r="E22">
-        <v>-17.50059316357834</v>
+        <v>-52.9274058755467</v>
       </c>
       <c r="F22">
-        <v>-63.65109429628981</v>
+        <v>-12.60893061122513</v>
       </c>
     </row>
     <row r="23">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>-15.77031368532781</v>
+        <v>-2.171782795940791</v>
       </c>
       <c r="C23">
-        <v>-9.321998076080481</v>
+        <v>6.091105586587504</v>
       </c>
       <c r="D23">
-        <v>3.202505669245547</v>
+        <v>31.55423755295041</v>
       </c>
       <c r="E23">
-        <v>-17.01457278376581</v>
+        <v>-64.37579553426882</v>
       </c>
       <c r="F23">
-        <v>-84.69667636837485</v>
+        <v>-28.33512012170665</v>
       </c>
     </row>
     <row r="24">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>-3.68178342106184</v>
+        <v>4.440097221695289</v>
       </c>
       <c r="C24">
-        <v>10.66759509672414</v>
+        <v>23.94931361724785</v>
       </c>
       <c r="D24">
-        <v>-10.64014248419272</v>
+        <v>30.53773801822807</v>
       </c>
       <c r="E24">
-        <v>-9.81585108769395</v>
+        <v>-44.37218294386885</v>
       </c>
       <c r="F24">
-        <v>-73.67746623558763</v>
+        <v>-30.10211037676142</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>-31.50857704274643</v>
+        <v>-18.86738725502334</v>
       </c>
       <c r="C25">
-        <v>-20.524672917484</v>
+        <v>-6.199733056232427</v>
       </c>
       <c r="D25">
-        <v>12.44360756220885</v>
+        <v>31.91628862502204</v>
       </c>
       <c r="E25">
-        <v>-14.7499269414773</v>
+        <v>-70.57512430721376</v>
       </c>
       <c r="F25">
-        <v>-83.23702900945014</v>
+        <v>-20.52122681971085</v>
       </c>
     </row>
     <row r="26">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>-14.24531749843477</v>
+        <v>-8.377421553753335</v>
       </c>
       <c r="C26">
-        <v>-8.1715989885806</v>
+        <v>0.02293123726146362</v>
       </c>
       <c r="D26">
-        <v>-5.296943851116994</v>
+        <v>42.65662446345797</v>
       </c>
       <c r="E26">
-        <v>1.854463623219077</v>
+        <v>-47.64607377601442</v>
       </c>
       <c r="F26">
-        <v>-80.95124840351438</v>
+        <v>-29.95534927644071</v>
       </c>
     </row>
     <row r="27">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>-9.111828154962172</v>
+        <v>-4.79932183309813</v>
       </c>
       <c r="C27">
-        <v>-1.418414435401602</v>
+        <v>6.017908192667985</v>
       </c>
       <c r="D27">
-        <v>-10.46241907583126</v>
+        <v>23.08779684074845</v>
       </c>
       <c r="E27">
-        <v>-3.70633958087145</v>
+        <v>-29.78547331468881</v>
       </c>
       <c r="F27">
-        <v>-51.51156437160288</v>
+        <v>-26.19234075589382</v>
       </c>
     </row>
     <row r="28">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>-40.77608175533877</v>
+        <v>-30.99171549914448</v>
       </c>
       <c r="C28">
-        <v>-26.39648728996319</v>
+        <v>-14.29195390035838</v>
       </c>
       <c r="D28">
-        <v>9.381227119764597</v>
+        <v>7.681752211567693</v>
       </c>
       <c r="E28">
-        <v>-20.01323311621177</v>
+        <v>-52.84667266395525</v>
       </c>
       <c r="F28">
-        <v>-46.03682311611205</v>
+        <v>-15.85571521104262</v>
       </c>
     </row>
     <row r="29">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>-13.80160901377684</v>
+        <v>4.071248583600253</v>
       </c>
       <c r="C29">
-        <v>-10.589464098571</v>
+        <v>11.30432735606814</v>
       </c>
       <c r="D29">
-        <v>-26.64127114314812</v>
+        <v>19.35879645416104</v>
       </c>
       <c r="E29">
-        <v>-35.40287887206858</v>
+        <v>-63.71750513572697</v>
       </c>
       <c r="F29">
-        <v>-89.73459121672624</v>
+        <v>-66.88341738284585</v>
       </c>
     </row>
     <row r="30">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>-39.86278101552571</v>
+        <v>-31.1839314135332</v>
       </c>
       <c r="C30">
-        <v>-25.2908400214104</v>
+        <v>-14.19836156934355</v>
       </c>
       <c r="D30">
-        <v>8.005496721214879</v>
+        <v>0.09341890588691859</v>
       </c>
       <c r="E30">
-        <v>-20.97132083379836</v>
+        <v>-44.90963360010059</v>
       </c>
       <c r="F30">
-        <v>-33.01924482486225</v>
+        <v>-13.43989837671356</v>
       </c>
     </row>
     <row r="31">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>5.38483709560485</v>
+        <v>10.53140037697952</v>
       </c>
       <c r="C31">
-        <v>21.25920171151289</v>
+        <v>31.15977131634127</v>
       </c>
       <c r="D31">
-        <v>-1.659059996694831</v>
+        <v>32.19447680536185</v>
       </c>
       <c r="E31">
-        <v>-1.314152566597501</v>
+        <v>-35.07788257978214</v>
       </c>
       <c r="F31">
-        <v>-63.23386267144206</v>
+        <v>-11.85228768344853</v>
       </c>
     </row>
     <row r="32">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>-48.55985454289734</v>
+        <v>-24.32064728985597</v>
       </c>
       <c r="C32">
-        <v>-34.99860923499555</v>
+        <v>-8.973940525539813</v>
       </c>
       <c r="D32">
-        <v>16.8359834868629</v>
+        <v>-0.9910642624071673</v>
       </c>
       <c r="E32">
-        <v>-51.99633684134719</v>
+        <v>-91.59571151114021</v>
       </c>
       <c r="F32">
-        <v>-72.98001044849374</v>
+        <v>-28.41669425740082</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>-30.93505980357985</v>
+        <v>-14.10611496098715</v>
       </c>
       <c r="C33">
-        <v>-26.45368021193911</v>
+        <v>-6.223997147436588</v>
       </c>
       <c r="D33">
-        <v>-21.08247100787389</v>
+        <v>21.11813504026551</v>
       </c>
       <c r="E33">
-        <v>-32.47891320740831</v>
+        <v>-69.65244802623637</v>
       </c>
       <c r="F33">
-        <v>-90.46268900726214</v>
+        <v>-65.12945102590132</v>
       </c>
     </row>
     <row r="34">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>-31.49080541883205</v>
+        <v>-22.67366658266541</v>
       </c>
       <c r="C34">
-        <v>-21.88863379696896</v>
+        <v>-10.16724783285354</v>
       </c>
       <c r="D34">
-        <v>-8.715805279624409</v>
+        <v>-7.897714274615868</v>
       </c>
       <c r="E34">
-        <v>-26.13553956039016</v>
+        <v>-33.86520690644535</v>
       </c>
       <c r="F34">
-        <v>-25.67094274328694</v>
+        <v>-29.70416434338636</v>
       </c>
     </row>
     <row r="35">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>-57.82131911178176</v>
+        <v>-27.37815033591808</v>
       </c>
       <c r="C35">
-        <v>-43.65619722566272</v>
+        <v>-12.02767531031496</v>
       </c>
       <c r="D35">
-        <v>25.03683298843306</v>
+        <v>-4.606504610030118</v>
       </c>
       <c r="E35">
-        <v>-65.18933854169003</v>
+        <v>-111.5164713338349</v>
       </c>
       <c r="F35">
-        <v>-84.14906566275437</v>
+        <v>-29.76763310117733</v>
       </c>
     </row>
     <row r="36">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>-15.42276083466645</v>
+        <v>-6.310352046492186</v>
       </c>
       <c r="C36">
-        <v>-5.142043357169544</v>
+        <v>6.818228919985556</v>
       </c>
       <c r="D36">
-        <v>0.04657078876153609</v>
+        <v>25.22382458232034</v>
       </c>
       <c r="E36">
-        <v>-11.60520510864902</v>
+        <v>-48.84171565898367</v>
       </c>
       <c r="F36">
-        <v>-65.88395166317645</v>
+        <v>-22.72949710352643</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>-32.83075778321211</v>
+        <v>-17.59645283421881</v>
       </c>
       <c r="C37">
-        <v>-20.9358910002748</v>
+        <v>-3.72034007417332</v>
       </c>
       <c r="D37">
-        <v>12.59545182138851</v>
+        <v>31.70186529202556</v>
       </c>
       <c r="E37">
-        <v>-20.39401367958482</v>
+        <v>-78.42645900826823</v>
       </c>
       <c r="F37">
-        <v>-90.67565452861349</v>
+        <v>-24.23626460948944</v>
       </c>
     </row>
     <row r="38">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>-5.997255898688677</v>
+        <v>0.3779735552694046</v>
       </c>
       <c r="C38">
-        <v>4.511400608553391</v>
+        <v>14.54180014523648</v>
       </c>
       <c r="D38">
-        <v>-5.368342234442481</v>
+        <v>43.16031989087134</v>
       </c>
       <c r="E38">
-        <v>0.4150264962374584</v>
+        <v>-47.3392746745438</v>
       </c>
       <c r="F38">
-        <v>-83.15287592545921</v>
+        <v>-26.67689484014776</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>-5.872510049947906</v>
+        <v>10.11690898952146</v>
       </c>
       <c r="C39">
-        <v>-3.264486135574202</v>
+        <v>17.58498972711896</v>
       </c>
       <c r="D39">
-        <v>-35.25317627390643</v>
+        <v>28.03931582585698</v>
       </c>
       <c r="E39">
-        <v>-29.26056010831277</v>
+        <v>-59.16639394328249</v>
       </c>
       <c r="F39">
-        <v>-97.94712431979964</v>
+        <v>-74.10414599716592</v>
       </c>
     </row>
     <row r="40">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>2.779484486064734</v>
+        <v>9.756047548847711</v>
       </c>
       <c r="C40">
-        <v>12.92988630203459</v>
+        <v>23.61669224187194</v>
       </c>
       <c r="D40">
-        <v>-5.815453738843644</v>
+        <v>28.70904658936219</v>
       </c>
       <c r="E40">
-        <v>-6.157942882586935</v>
+        <v>-37.0094031543053</v>
       </c>
       <c r="F40">
-        <v>-63.70504921647712</v>
+        <v>-21.01152252639752</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>-9.06140108859648</v>
+        <v>12.58547722908736</v>
       </c>
       <c r="C41">
-        <v>-10.1089428719968</v>
+        <v>16.17726188155305</v>
       </c>
       <c r="D41">
-        <v>-40.2070651390566</v>
+        <v>33.52207530386048</v>
       </c>
       <c r="E41">
-        <v>-39.07064747028211</v>
+        <v>-77.60817131601615</v>
       </c>
       <c r="F41">
-        <v>-122.4377749047378</v>
+        <v>-91.81337635318674</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>-40.74459044728197</v>
+        <v>-31.70861815985621</v>
       </c>
       <c r="C42">
-        <v>-24.74250472556349</v>
+        <v>-13.06317056232228</v>
       </c>
       <c r="D42">
-        <v>8.631963094554589</v>
+        <v>-8.342490410455794</v>
       </c>
       <c r="E42">
-        <v>-25.2341690116736</v>
+        <v>-41.83758629719885</v>
       </c>
       <c r="F42">
-        <v>-22.91173347932585</v>
+        <v>-10.8175378464768</v>
       </c>
     </row>
     <row r="43">
@@ -1298,19 +1298,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>-2.220817848003451</v>
+        <v>12.06050537697276</v>
       </c>
       <c r="C43">
-        <v>-6.602509704234503</v>
+        <v>8.723248793507031</v>
       </c>
       <c r="D43">
-        <v>-13.69863267170305</v>
+        <v>31.51931377967561</v>
       </c>
       <c r="E43">
-        <v>-18.80001372630775</v>
+        <v>-55.72989533670915</v>
       </c>
       <c r="F43">
-        <v>-86.97176931505737</v>
+        <v>-47.51343113132047</v>
       </c>
     </row>
     <row r="44">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>-1.568969468997122</v>
+        <v>12.74617398111278</v>
       </c>
       <c r="C44">
-        <v>-4.957600580979923</v>
+        <v>8.412329719927813</v>
       </c>
       <c r="D44">
-        <v>9.419516385025482</v>
+        <v>29.30058447476732</v>
       </c>
       <c r="E44">
-        <v>-15.63847425060105</v>
+        <v>-57.44834054566255</v>
       </c>
       <c r="F44">
-        <v>-75.67112407707718</v>
+        <v>-18.88293921333036</v>
       </c>
     </row>
     <row r="45">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>-13.36187873370273</v>
+        <v>13.4347437115666</v>
       </c>
       <c r="C45">
-        <v>-24.68375711528422</v>
+        <v>-0.9000163028746733</v>
       </c>
       <c r="D45">
-        <v>11.15672945534246</v>
+        <v>5.218352926976698</v>
       </c>
       <c r="E45">
-        <v>-49.36531866470181</v>
+        <v>-80.65187860443686</v>
       </c>
       <c r="F45">
-        <v>-76.54179225144416</v>
+        <v>-34.62504216704922</v>
       </c>
     </row>
     <row r="46">
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>-29.61404057147657</v>
+        <v>9.571961564887625</v>
       </c>
       <c r="C46">
-        <v>-35.27054107290469</v>
+        <v>1.644968160289966</v>
       </c>
       <c r="D46">
-        <v>20.83255338539359</v>
+        <v>13.25282062155032</v>
       </c>
       <c r="E46">
-        <v>-71.7849400836204</v>
+        <v>-128.8204213324517</v>
       </c>
       <c r="F46">
-        <v>-123.2174623785041</v>
+        <v>-47.4461073040104</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>-2.062454953228177</v>
+        <v>6.462543182891045</v>
       </c>
       <c r="C47">
-        <v>-4.777489569750378</v>
+        <v>4.282839348251284</v>
       </c>
       <c r="D47">
-        <v>-7.028282734780353</v>
+        <v>26.95072774798816</v>
       </c>
       <c r="E47">
-        <v>-7.823170234934295</v>
+        <v>-38.38981316856293</v>
       </c>
       <c r="F47">
-        <v>-62.66878049383931</v>
+        <v>-29.52062997279965</v>
       </c>
     </row>
     <row r="48">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>-14.15056970016713</v>
+        <v>-2.020784158022213</v>
       </c>
       <c r="C48">
-        <v>-12.22809898201416</v>
+        <v>2.508278766537954</v>
       </c>
       <c r="D48">
-        <v>-18.62064407798504</v>
+        <v>12.33572346770718</v>
       </c>
       <c r="E48">
-        <v>-24.58166390444642</v>
+        <v>-44.5224772987831</v>
       </c>
       <c r="F48">
-        <v>-60.73203512559124</v>
+        <v>-47.62897306993838</v>
       </c>
     </row>
     <row r="49">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>-28.07686714233306</v>
+        <v>-6.371668403213558</v>
       </c>
       <c r="C49">
-        <v>-20.12372535998021</v>
+        <v>3.133118505588723</v>
       </c>
       <c r="D49">
-        <v>10.80572781147218</v>
+        <v>32.41763928798329</v>
       </c>
       <c r="E49">
-        <v>-32.79026567880553</v>
+        <v>-93.54042597095923</v>
       </c>
       <c r="F49">
-        <v>-108.3334432149527</v>
+        <v>-35.22054026848354</v>
       </c>
     </row>
     <row r="50">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>-30.39228726361376</v>
+        <v>-20.37368375739159</v>
       </c>
       <c r="C50">
-        <v>-23.04844722872247</v>
+        <v>-8.957983196462671</v>
       </c>
       <c r="D50">
-        <v>-23.2958938392552</v>
+        <v>23.73445643135148</v>
       </c>
       <c r="E50">
-        <v>-18.38062042035738</v>
+        <v>-52.63837657916676</v>
       </c>
       <c r="F50">
-        <v>-76.62948224307314</v>
+        <v>-57.71293357600599</v>
       </c>
     </row>
     <row r="51">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>-33.56617160871343</v>
+        <v>-21.12698443985256</v>
       </c>
       <c r="C51">
-        <v>-21.7033183702857</v>
+        <v>-7.930959111375499</v>
       </c>
       <c r="D51">
-        <v>17.10312931787249</v>
+        <v>23.31940569294838</v>
       </c>
       <c r="E51">
-        <v>-17.11042350997639</v>
+        <v>-66.67293110406915</v>
       </c>
       <c r="F51">
-        <v>-69.86283778269257</v>
+        <v>-12.82448757351499</v>
       </c>
     </row>
     <row r="52">
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>9.39523362817036</v>
+        <v>23.47948220300992</v>
       </c>
       <c r="C52">
-        <v>0.2111071349769821</v>
+        <v>13.79642459694742</v>
       </c>
       <c r="D52">
-        <v>-7.623126240546847</v>
+        <v>33.07543246547004</v>
       </c>
       <c r="E52">
-        <v>-15.20560077467045</v>
+        <v>-50.90865548450874</v>
       </c>
       <c r="F52">
-        <v>-82.73135113828062</v>
+        <v>-37.51195680642781</v>
       </c>
     </row>
     <row r="53">
@@ -1518,19 +1518,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>-5.328558922753012</v>
+        <v>8.273412555447546</v>
       </c>
       <c r="C53">
-        <v>-6.234937772317834</v>
+        <v>10.23516631708486</v>
       </c>
       <c r="D53">
-        <v>-25.11218408723734</v>
+        <v>23.90063953061023</v>
       </c>
       <c r="E53">
-        <v>-23.34228474226194</v>
+        <v>-50.21527931244211</v>
       </c>
       <c r="F53">
-        <v>-80.60031957068698</v>
+        <v>-58.22398396672636</v>
       </c>
     </row>
     <row r="54">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>-37.21183783883924</v>
+        <v>-16.83362682083642</v>
       </c>
       <c r="C54">
-        <v>-33.19965702468772</v>
+        <v>-8.769782109898431</v>
       </c>
       <c r="D54">
-        <v>-29.78323981361463</v>
+        <v>9.423172222492166</v>
       </c>
       <c r="E54">
-        <v>-46.15970148908629</v>
+        <v>-73.94993079371626</v>
       </c>
       <c r="F54">
-        <v>-88.60589100152485</v>
+        <v>-79.80766317564161</v>
       </c>
     </row>
     <row r="55">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>-5.664982201324349</v>
+        <v>2.62554146411301</v>
       </c>
       <c r="C55">
-        <v>11.23638590893696</v>
+        <v>24.28548348997775</v>
       </c>
       <c r="D55">
-        <v>-1.007784466899284</v>
+        <v>20.85505737800752</v>
       </c>
       <c r="E55">
-        <v>-12.78663970718393</v>
+        <v>-41.93176556710138</v>
       </c>
       <c r="F55">
-        <v>-58.55378207413558</v>
+        <v>-16.22226005411841</v>
       </c>
     </row>
     <row r="56">
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>-49.48736711299328</v>
+        <v>-13.66356297504969</v>
       </c>
       <c r="C56">
-        <v>-37.60745729384949</v>
+        <v>-1.408827596358023</v>
       </c>
       <c r="D56">
-        <v>33.50867569642408</v>
+        <v>17.09051773618587</v>
       </c>
       <c r="E56">
-        <v>-65.39154953575003</v>
+        <v>-136.117406956228</v>
       </c>
       <c r="F56">
-        <v>-123.4745981008699</v>
+        <v>-30.94715838785809</v>
       </c>
     </row>
     <row r="57">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>-39.4954842664561</v>
+        <v>-23.02638263644375</v>
       </c>
       <c r="C57">
-        <v>-26.28971087868777</v>
+        <v>-6.444359984561856</v>
       </c>
       <c r="D57">
-        <v>-2.232542381929916</v>
+        <v>-3.910443105163469</v>
       </c>
       <c r="E57">
-        <v>-40.21115157642802</v>
+        <v>-62.34177556185885</v>
       </c>
       <c r="F57">
-        <v>-52.67205578997536</v>
+        <v>-35.98119327384764</v>
       </c>
     </row>
     <row r="58">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>-1.60939182650298</v>
+        <v>3.56978082313487</v>
       </c>
       <c r="C58">
-        <v>20.59823510126411</v>
+        <v>32.40776386542261</v>
       </c>
       <c r="D58">
-        <v>-5.813198142245751</v>
+        <v>35.79372919335489</v>
       </c>
       <c r="E58">
-        <v>-2.316690633442168</v>
+        <v>-41.28524804141392</v>
       </c>
       <c r="F58">
-        <v>-73.04841726519028</v>
+        <v>-18.63470229727638</v>
       </c>
     </row>
     <row r="59">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>-8.275102407703418</v>
+        <v>-3.416332413403384</v>
       </c>
       <c r="C59">
-        <v>3.742646536621245</v>
+        <v>12.21050354679096</v>
       </c>
       <c r="D59">
-        <v>-1.439987187068017</v>
+        <v>51.9573077490591</v>
       </c>
       <c r="E59">
-        <v>7.324241585619673</v>
+        <v>-50.05754923169116</v>
       </c>
       <c r="F59">
-        <v>-90.31836535391162</v>
+        <v>-22.64123328715832</v>
       </c>
     </row>
     <row r="60">
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>-28.83554855119135</v>
+        <v>-17.55436403292612</v>
       </c>
       <c r="C60">
-        <v>-23.6817329511448</v>
+        <v>-12.08187066234856</v>
       </c>
       <c r="D60">
-        <v>10.60833699049787</v>
+        <v>22.71751339515039</v>
       </c>
       <c r="E60">
-        <v>-14.5951074688418</v>
+        <v>-58.54403059047579</v>
       </c>
       <c r="F60">
-        <v>-65.19669550107196</v>
+        <v>-18.87026391788043</v>
       </c>
     </row>
     <row r="61">
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>2.028600047707752</v>
+        <v>12.07572148665501</v>
       </c>
       <c r="C61">
-        <v>6.292742808576318</v>
+        <v>19.0640054786775</v>
       </c>
       <c r="D61">
-        <v>-9.643629101262304</v>
+        <v>29.82251417234045</v>
       </c>
       <c r="E61">
-        <v>-11.58519867271826</v>
+        <v>-44.30561803476024</v>
       </c>
       <c r="F61">
-        <v>-73.42861189858853</v>
+        <v>-32.19274706812607</v>
       </c>
     </row>
     <row r="62">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="B62">
-        <v>-42.15502854744889</v>
+        <v>-20.36526632768485</v>
       </c>
       <c r="C62">
-        <v>-31.13523003984235</v>
+        <v>-8.220600712801996</v>
       </c>
       <c r="D62">
-        <v>19.47486430181332</v>
+        <v>24.84291844275169</v>
       </c>
       <c r="E62">
-        <v>-35.52988545303103</v>
+        <v>-96.88056779858526</v>
       </c>
       <c r="F62">
-        <v>-98.4223078286976</v>
+        <v>-27.20942206909311</v>
       </c>
     </row>
     <row r="63">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="B63">
-        <v>-33.2636665172212</v>
+        <v>-20.11951288539019</v>
       </c>
       <c r="C63">
-        <v>-22.93686180506064</v>
+        <v>-7.738847296357959</v>
       </c>
       <c r="D63">
-        <v>6.022172517524276</v>
+        <v>23.03436963190531</v>
       </c>
       <c r="E63">
-        <v>-20.40074401364554</v>
+        <v>-66.52117707085824</v>
       </c>
       <c r="F63">
-        <v>-75.00749820336367</v>
+        <v>-27.28284487803107</v>
       </c>
     </row>
     <row r="64">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>-3.756664578205418</v>
+        <v>2.750697188926061</v>
       </c>
       <c r="C64">
-        <v>-0.04104011403300745</v>
+        <v>7.451769081148379</v>
       </c>
       <c r="D64">
-        <v>3.475793165745762</v>
+        <v>23.30844123379306</v>
       </c>
       <c r="E64">
-        <v>-4.534699306656476</v>
+        <v>-34.4931161901425</v>
       </c>
       <c r="F64">
-        <v>-50.56127306807278</v>
+        <v>-11.94016577531786</v>
       </c>
     </row>
     <row r="65">
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>-26.13286214535016</v>
+        <v>-14.49597127994866</v>
       </c>
       <c r="C65">
-        <v>-12.52895567809162</v>
+        <v>2.086404131922059</v>
       </c>
       <c r="D65">
-        <v>5.657365696070766</v>
+        <v>19.88897665064138</v>
       </c>
       <c r="E65">
-        <v>-18.98047603368448</v>
+        <v>-58.5979327253425</v>
       </c>
       <c r="F65">
-        <v>-66.50970770060162</v>
+        <v>-21.18605737138681</v>
       </c>
     </row>
     <row r="66">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B66">
-        <v>-3.113127056858424</v>
+        <v>8.85841648815301</v>
       </c>
       <c r="C66">
-        <v>-2.567638541687279</v>
+        <v>12.1803218209309</v>
       </c>
       <c r="D66">
-        <v>-20.16250714851633</v>
+        <v>29.58914023711006</v>
       </c>
       <c r="E66">
-        <v>-17.03751229795348</v>
+        <v>-49.15667020834626</v>
       </c>
       <c r="F66">
-        <v>-82.05138030326113</v>
+        <v>-50.33358207347069</v>
       </c>
     </row>
     <row r="67">
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="B67">
-        <v>-52.66005527896103</v>
+        <v>-25.52567295398748</v>
       </c>
       <c r="C67">
-        <v>-37.23568781266931</v>
+        <v>-8.067886789949306</v>
       </c>
       <c r="D67">
-        <v>19.35558976513143</v>
+        <v>-2.899777852314287</v>
       </c>
       <c r="E67">
-        <v>-58.79747471773287</v>
+        <v>-100.9606603266795</v>
       </c>
       <c r="F67">
-        <v>-78.86058525921486</v>
+        <v>-30.02685410876151</v>
       </c>
     </row>
     <row r="68">
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="B68">
-        <v>-32.49894981575415</v>
+        <v>-24.29901754198325</v>
       </c>
       <c r="C68">
-        <v>-20.83229496990401</v>
+        <v>-11.31747615868614</v>
       </c>
       <c r="D68">
-        <v>14.87144600978726</v>
+        <v>20.36017284142843</v>
       </c>
       <c r="E68">
-        <v>-9.859850415773288</v>
+        <v>-52.46804669098599</v>
       </c>
       <c r="F68">
-        <v>-54.54059275823376</v>
+        <v>-8.248499330149716</v>
       </c>
     </row>
     <row r="69">
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B69">
-        <v>-7.491229341168068</v>
+        <v>9.631466432440281</v>
       </c>
       <c r="C69">
-        <v>-6.597256360332544</v>
+        <v>14.39457004496348</v>
       </c>
       <c r="D69">
-        <v>-29.62170332274803</v>
+        <v>24.44202971655588</v>
       </c>
       <c r="E69">
-        <v>-31.68178470266614</v>
+        <v>-61.07336688576446</v>
       </c>
       <c r="F69">
-        <v>-93.83471986256932</v>
+        <v>-69.09579009605297</v>
       </c>
     </row>
     <row r="70">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B70">
-        <v>-31.96374462061039</v>
+        <v>8.6136406028929</v>
       </c>
       <c r="C70">
-        <v>-37.47521301927241</v>
+        <v>1.160685139286402</v>
       </c>
       <c r="D70">
-        <v>17.76023207704116</v>
+        <v>11.37647337580525</v>
       </c>
       <c r="E70">
-        <v>-76.08458431980718</v>
+        <v>-132.1671229553105</v>
       </c>
       <c r="F70">
-        <v>-126.1444580083772</v>
+        <v>-53.40830879319412</v>
       </c>
     </row>
     <row r="71">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B71">
-        <v>-7.626099392127874</v>
+        <v>-3.647649921250868</v>
       </c>
       <c r="C71">
-        <v>-7.404575154219301</v>
+        <v>-3.183743480995871</v>
       </c>
       <c r="D71">
-        <v>-1.178124173073008</v>
+        <v>8.130710275912039</v>
       </c>
       <c r="E71">
-        <v>-5.581605400688782</v>
+        <v>-18.64710150167582</v>
       </c>
       <c r="F71">
-        <v>-24.02500348006066</v>
+        <v>-12.06669935185559</v>
       </c>
     </row>
     <row r="72">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="B72">
-        <v>-22.1362393937001</v>
+        <v>-25.67669070555506</v>
       </c>
       <c r="C72">
-        <v>-11.95381930282036</v>
+        <v>-13.11011771775782</v>
       </c>
       <c r="D72">
-        <v>-5.011320990274027</v>
+        <v>-4.285358628209176</v>
       </c>
       <c r="E72">
-        <v>1.712564764042664</v>
+        <v>1.305461319505554</v>
       </c>
       <c r="F72">
-        <v>6.785254279189356</v>
+        <v>-4.958925201476866</v>
       </c>
     </row>
     <row r="73">
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B73">
-        <v>-7.121965379125367</v>
+        <v>6.689745744481501</v>
       </c>
       <c r="C73">
-        <v>-7.880859881435712</v>
+        <v>7.6556311158836</v>
       </c>
       <c r="D73">
-        <v>-12.98658985804971</v>
+        <v>26.81020770537731</v>
       </c>
       <c r="E73">
-        <v>-20.48934378910873</v>
+        <v>-54.74542978479727</v>
       </c>
       <c r="F73">
-        <v>-81.00010147046831</v>
+        <v>-45.4814170407513</v>
       </c>
     </row>
     <row r="74">
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>-13.32552916765544</v>
+        <v>5.571309004356545</v>
       </c>
       <c r="C74">
-        <v>-13.40769018499656</v>
+        <v>7.508121690970612</v>
       </c>
       <c r="D74">
-        <v>-13.62474499073029</v>
+        <v>23.56972927390102</v>
       </c>
       <c r="E74">
-        <v>-32.75606946810875</v>
+        <v>-69.49859304769845</v>
       </c>
       <c r="F74">
-        <v>-92.33693544030888</v>
+        <v>-54.73068946471029</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-wa-fa.xlsx
+++ b/results/df-wa-fa.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.484292820072129</v>
+        <v>1.484292820072136</v>
       </c>
       <c r="C2">
-        <v>7.766254122361525</v>
+        <v>7.766254122361534</v>
       </c>
       <c r="D2">
-        <v>21.42338294062885</v>
+        <v>21.42338294062889</v>
       </c>
       <c r="E2">
-        <v>-37.17839989213532</v>
+        <v>-37.17839989213542</v>
       </c>
       <c r="F2">
-        <v>-34.3803140371733</v>
+        <v>-34.38031403717338</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>-15.28771981963644</v>
+        <v>-15.2877198196364</v>
       </c>
       <c r="C3">
-        <v>-2.043989946310269</v>
+        <v>-2.043989946310271</v>
       </c>
       <c r="D3">
-        <v>10.35337284577383</v>
+        <v>10.35337284577389</v>
       </c>
       <c r="E3">
-        <v>-105.2710824772989</v>
+        <v>-105.2710824772991</v>
       </c>
       <c r="F3">
-        <v>-29.99453119831436</v>
+        <v>-29.99453119831447</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.793724438016572</v>
+        <v>3.793724438016614</v>
       </c>
       <c r="C4">
-        <v>11.70155786068527</v>
+        <v>11.70155786068526</v>
       </c>
       <c r="D4">
-        <v>24.13845363980899</v>
+        <v>24.13845363980901</v>
       </c>
       <c r="E4">
-        <v>-34.53732022927524</v>
+        <v>-34.53732022927532</v>
       </c>
       <c r="F4">
-        <v>-11.63271617616948</v>
+        <v>-11.63271617616956</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>-21.62862490443728</v>
+        <v>-21.62862490443722</v>
       </c>
       <c r="C5">
-        <v>-9.910424927333651</v>
+        <v>-9.910424927333652</v>
       </c>
       <c r="D5">
-        <v>14.18582752945935</v>
+        <v>14.18582752945944</v>
       </c>
       <c r="E5">
-        <v>-158.0744156658091</v>
+        <v>-158.0744156658094</v>
       </c>
       <c r="F5">
-        <v>-34.76002309902154</v>
+        <v>-34.76002309902168</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>-17.76045392243708</v>
+        <v>-17.76045392243706</v>
       </c>
       <c r="C6">
         <v>-5.232462677339868</v>
       </c>
       <c r="D6">
-        <v>18.21675910902351</v>
+        <v>18.21675910902361</v>
       </c>
       <c r="E6">
-        <v>-79.51994100280844</v>
+        <v>-79.51994100280859</v>
       </c>
       <c r="F6">
-        <v>-29.1257790504998</v>
+        <v>-29.1257790504999</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>-19.77067571822382</v>
+        <v>-19.77067571822381</v>
       </c>
       <c r="C7">
-        <v>-14.14505462290257</v>
+        <v>-14.14505462290256</v>
       </c>
       <c r="D7">
-        <v>7.172001249465415</v>
+        <v>7.172001249465479</v>
       </c>
       <c r="E7">
-        <v>-63.22687314463936</v>
+        <v>-63.22687314463947</v>
       </c>
       <c r="F7">
-        <v>-115.0456089324424</v>
+        <v>-115.0456089324425</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.163599331139281</v>
+        <v>6.163599331139356</v>
       </c>
       <c r="C8">
-        <v>6.274545762301711</v>
+        <v>6.274545762301697</v>
       </c>
       <c r="D8">
-        <v>24.64407947981325</v>
+        <v>24.64407947981324</v>
       </c>
       <c r="E8">
-        <v>-47.9718300371324</v>
+        <v>-47.97183003713253</v>
       </c>
       <c r="F8">
-        <v>-48.23137655739144</v>
+        <v>-48.23137655739152</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>-28.89708699347063</v>
+        <v>-28.89708699347064</v>
       </c>
       <c r="C9">
-        <v>-19.0691658909336</v>
+        <v>-19.06916589093361</v>
       </c>
       <c r="D9">
-        <v>26.76888534741698</v>
+        <v>26.76888534741714</v>
       </c>
       <c r="E9">
-        <v>-62.40362572222662</v>
+        <v>-62.40362572222666</v>
       </c>
       <c r="F9">
-        <v>-16.98012229159768</v>
+        <v>-16.98012229159777</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>12.38497430994193</v>
+        <v>12.38497430994205</v>
       </c>
       <c r="C10">
-        <v>10.7234193928864</v>
+        <v>10.72341939288637</v>
       </c>
       <c r="D10">
-        <v>30.62028034715426</v>
+        <v>30.6202803471542</v>
       </c>
       <c r="E10">
-        <v>-64.33099755230771</v>
+        <v>-64.33099755230789</v>
       </c>
       <c r="F10">
-        <v>-69.81765046808548</v>
+        <v>-69.81765046808556</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.883784813099602</v>
+        <v>5.883784813099714</v>
       </c>
       <c r="C11">
         <v>38.91464712762979</v>
       </c>
       <c r="D11">
-        <v>35.87829982731672</v>
+        <v>35.87829982731666</v>
       </c>
       <c r="E11">
-        <v>-43.2187322805549</v>
+        <v>-43.21873228055506</v>
       </c>
       <c r="F11">
-        <v>-18.2100613073195</v>
+        <v>-18.2100613073196</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>2.177551995229592</v>
+        <v>2.177551995229658</v>
       </c>
       <c r="C12">
-        <v>-2.242662579399413</v>
+        <v>-2.242662579399437</v>
       </c>
       <c r="D12">
-        <v>-0.2102101280767469</v>
+        <v>-0.2102101280768179</v>
       </c>
       <c r="E12">
-        <v>-63.36721411762462</v>
+        <v>-63.36721411762479</v>
       </c>
       <c r="F12">
-        <v>-58.64793647948738</v>
+        <v>-58.64793647948744</v>
       </c>
     </row>
     <row r="13">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.240368639465929</v>
+        <v>3.240368639466016</v>
       </c>
       <c r="C13">
-        <v>12.89006187491449</v>
+        <v>12.89006187491448</v>
       </c>
       <c r="D13">
-        <v>26.09020865057447</v>
+        <v>26.09020865057444</v>
       </c>
       <c r="E13">
-        <v>-60.43362603937094</v>
+        <v>-60.4336260393711</v>
       </c>
       <c r="F13">
-        <v>-54.06854243121995</v>
+        <v>-54.06854243122003</v>
       </c>
     </row>
     <row r="14">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>22.08559964692223</v>
+        <v>22.08559964692234</v>
       </c>
       <c r="C14">
-        <v>13.69783210800481</v>
+        <v>13.69783210800477</v>
       </c>
       <c r="D14">
-        <v>27.67240521124643</v>
+        <v>27.67240521124635</v>
       </c>
       <c r="E14">
-        <v>-58.00431164924035</v>
+        <v>-58.00431164924055</v>
       </c>
       <c r="F14">
-        <v>-59.3294174758344</v>
+        <v>-59.32941747583452</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>-20.10060057414776</v>
+        <v>-20.10060057414772</v>
       </c>
       <c r="C15">
-        <v>-8.901186276251146</v>
+        <v>-8.901186276251149</v>
       </c>
       <c r="D15">
-        <v>8.445230171560624</v>
+        <v>8.445230171560706</v>
       </c>
       <c r="E15">
-        <v>-145.3101340347594</v>
+        <v>-145.3101340347597</v>
       </c>
       <c r="F15">
-        <v>-33.51610289814383</v>
+        <v>-33.51610289814397</v>
       </c>
     </row>
     <row r="16">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>-17.8402726891192</v>
+        <v>-17.84027268911919</v>
       </c>
       <c r="C16">
         <v>-5.076981530994272</v>
       </c>
       <c r="D16">
-        <v>25.07392071251359</v>
+        <v>25.0739207125137</v>
       </c>
       <c r="E16">
-        <v>-46.38374469867683</v>
+        <v>-46.38374469867691</v>
       </c>
       <c r="F16">
-        <v>-12.95008640504132</v>
+        <v>-12.95008640504139</v>
       </c>
     </row>
     <row r="17">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>-4.313381854742774</v>
+        <v>-4.313381854742705</v>
       </c>
       <c r="C17">
-        <v>8.435746286333853</v>
+        <v>8.435746286333835</v>
       </c>
       <c r="D17">
-        <v>31.68472604154339</v>
+        <v>31.68472604154341</v>
       </c>
       <c r="E17">
-        <v>-44.46327636082798</v>
+        <v>-44.46327636082809</v>
       </c>
       <c r="F17">
-        <v>-28.30784691269859</v>
+        <v>-28.30784691269869</v>
       </c>
     </row>
     <row r="18">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>11.42723982599218</v>
+        <v>11.42723982599228</v>
       </c>
       <c r="C18">
-        <v>39.56162476135608</v>
+        <v>39.56162476135607</v>
       </c>
       <c r="D18">
-        <v>28.18269272337582</v>
+        <v>28.18269272337577</v>
       </c>
       <c r="E18">
-        <v>-41.99324870988275</v>
+        <v>-41.99324870988288</v>
       </c>
       <c r="F18">
-        <v>-20.59672673731586</v>
+        <v>-20.59672673731597</v>
       </c>
     </row>
     <row r="19">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.201516470414097</v>
+        <v>1.201516470414143</v>
       </c>
       <c r="C19">
-        <v>4.119843847350372</v>
+        <v>4.119843847350367</v>
       </c>
       <c r="D19">
-        <v>30.63829586022163</v>
+        <v>30.63829586022166</v>
       </c>
       <c r="E19">
-        <v>-56.30895794182062</v>
+        <v>-56.30895794182077</v>
       </c>
       <c r="F19">
-        <v>-32.59711971901717</v>
+        <v>-32.59711971901727</v>
       </c>
     </row>
     <row r="20">
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>-30.41576143243622</v>
+        <v>-30.41576143243626</v>
       </c>
       <c r="C20">
-        <v>-11.11639035750936</v>
+        <v>-11.11639035750938</v>
       </c>
       <c r="D20">
-        <v>-17.48524683693836</v>
+        <v>-17.48524683693827</v>
       </c>
       <c r="E20">
-        <v>-36.65232843644355</v>
+        <v>-36.6523284364436</v>
       </c>
       <c r="F20">
-        <v>-21.46612581425085</v>
+        <v>-21.46612581425092</v>
       </c>
     </row>
     <row r="21">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>-18.02792979728129</v>
+        <v>-18.02792979728122</v>
       </c>
       <c r="C21">
         <v>-6.507983132858945</v>
       </c>
       <c r="D21">
-        <v>13.71241735769186</v>
+        <v>13.71241735769192</v>
       </c>
       <c r="E21">
-        <v>-163.330241696735</v>
+        <v>-163.3302416967353</v>
       </c>
       <c r="F21">
-        <v>-36.89723384579905</v>
+        <v>-36.89723384579919</v>
       </c>
     </row>
     <row r="22">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>12.25646780122948</v>
+        <v>12.25646780122952</v>
       </c>
       <c r="C22">
-        <v>7.934460661816857</v>
+        <v>7.934460661816817</v>
       </c>
       <c r="D22">
-        <v>21.80914787051592</v>
+        <v>21.80914787051595</v>
       </c>
       <c r="E22">
-        <v>-52.9274058755467</v>
+        <v>-52.92740587554681</v>
       </c>
       <c r="F22">
-        <v>-12.60893061122513</v>
+        <v>-12.60893061122522</v>
       </c>
     </row>
     <row r="23">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>-2.171782795940791</v>
+        <v>-2.171782795940709</v>
       </c>
       <c r="C23">
-        <v>6.091105586587504</v>
+        <v>6.091105586587482</v>
       </c>
       <c r="D23">
-        <v>31.55423755295041</v>
+        <v>31.55423755295043</v>
       </c>
       <c r="E23">
-        <v>-64.37579553426882</v>
+        <v>-64.37579553426899</v>
       </c>
       <c r="F23">
-        <v>-28.33512012170665</v>
+        <v>-28.33512012170677</v>
       </c>
     </row>
     <row r="24">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>4.440097221695289</v>
+        <v>4.440097221695375</v>
       </c>
       <c r="C24">
-        <v>23.94931361724785</v>
+        <v>23.94931361724784</v>
       </c>
       <c r="D24">
-        <v>30.53773801822807</v>
+        <v>30.53773801822804</v>
       </c>
       <c r="E24">
-        <v>-44.37218294386885</v>
+        <v>-44.37218294386896</v>
       </c>
       <c r="F24">
-        <v>-30.10211037676142</v>
+        <v>-30.10211037676153</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>-18.86738725502334</v>
+        <v>-18.86738725502329</v>
       </c>
       <c r="C25">
-        <v>-6.199733056232427</v>
+        <v>-6.199733056232441</v>
       </c>
       <c r="D25">
-        <v>31.91628862502204</v>
+        <v>31.91628862502213</v>
       </c>
       <c r="E25">
-        <v>-70.57512430721376</v>
+        <v>-70.57512430721388</v>
       </c>
       <c r="F25">
-        <v>-20.52122681971085</v>
+        <v>-20.52122681971096</v>
       </c>
     </row>
     <row r="26">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>-8.377421553753335</v>
+        <v>-8.377421553753258</v>
       </c>
       <c r="C26">
-        <v>0.02293123726146362</v>
+        <v>0.02293123726146096</v>
       </c>
       <c r="D26">
-        <v>42.65662446345797</v>
+        <v>42.65662446345802</v>
       </c>
       <c r="E26">
-        <v>-47.64607377601442</v>
+        <v>-47.64607377601455</v>
       </c>
       <c r="F26">
-        <v>-29.95534927644071</v>
+        <v>-29.95534927644079</v>
       </c>
     </row>
     <row r="27">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>-4.79932183309813</v>
+        <v>-4.7993218330981</v>
       </c>
       <c r="C27">
-        <v>6.017908192667985</v>
+        <v>6.01790819266799</v>
       </c>
       <c r="D27">
-        <v>23.08779684074845</v>
+        <v>23.0877968407485</v>
       </c>
       <c r="E27">
-        <v>-29.78547331468881</v>
+        <v>-29.78547331468887</v>
       </c>
       <c r="F27">
-        <v>-26.19234075589382</v>
+        <v>-26.19234075589387</v>
       </c>
     </row>
     <row r="28">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>-30.99171549914448</v>
+        <v>-30.9917154991445</v>
       </c>
       <c r="C28">
-        <v>-14.29195390035838</v>
+        <v>-14.29195390035839</v>
       </c>
       <c r="D28">
-        <v>7.681752211567693</v>
+        <v>7.681752211567824</v>
       </c>
       <c r="E28">
-        <v>-52.84667266395525</v>
+        <v>-52.8466726639553</v>
       </c>
       <c r="F28">
-        <v>-15.85571521104262</v>
+        <v>-15.85571521104271</v>
       </c>
     </row>
     <row r="29">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.071248583600253</v>
+        <v>4.071248583600321</v>
       </c>
       <c r="C29">
-        <v>11.30432735606814</v>
+        <v>11.30432735606813</v>
       </c>
       <c r="D29">
-        <v>19.35879645416104</v>
+        <v>19.35879645416102</v>
       </c>
       <c r="E29">
-        <v>-63.71750513572697</v>
+        <v>-63.71750513572712</v>
       </c>
       <c r="F29">
-        <v>-66.88341738284585</v>
+        <v>-66.88341738284595</v>
       </c>
     </row>
     <row r="30">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>-31.1839314135332</v>
+        <v>-31.18393141353324</v>
       </c>
       <c r="C30">
-        <v>-14.19836156934355</v>
+        <v>-14.19836156934356</v>
       </c>
       <c r="D30">
-        <v>0.09341890588691859</v>
+        <v>0.0934189058870647</v>
       </c>
       <c r="E30">
-        <v>-44.90963360010059</v>
+        <v>-44.90963360010063</v>
       </c>
       <c r="F30">
-        <v>-13.43989837671356</v>
+        <v>-13.43989837671363</v>
       </c>
     </row>
     <row r="31">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.53140037697952</v>
+        <v>10.53140037697961</v>
       </c>
       <c r="C31">
-        <v>31.15977131634127</v>
+        <v>31.15977131634128</v>
       </c>
       <c r="D31">
-        <v>32.19447680536185</v>
+        <v>32.1944768053618</v>
       </c>
       <c r="E31">
-        <v>-35.07788257978214</v>
+        <v>-35.07788257978227</v>
       </c>
       <c r="F31">
-        <v>-11.85228768344853</v>
+        <v>-11.85228768344863</v>
       </c>
     </row>
     <row r="32">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>-24.32064728985597</v>
+        <v>-24.32064728985596</v>
       </c>
       <c r="C32">
-        <v>-8.973940525539813</v>
+        <v>-8.973940525539829</v>
       </c>
       <c r="D32">
-        <v>-0.9910642624071673</v>
+        <v>-0.99106426240709</v>
       </c>
       <c r="E32">
-        <v>-91.59571151114021</v>
+        <v>-91.59571151114038</v>
       </c>
       <c r="F32">
-        <v>-28.41669425740082</v>
+        <v>-28.41669425740091</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>-14.10611496098715</v>
+        <v>-14.10611496098711</v>
       </c>
       <c r="C33">
-        <v>-6.223997147436588</v>
+        <v>-6.223997147436585</v>
       </c>
       <c r="D33">
-        <v>21.11813504026551</v>
+        <v>21.11813504026556</v>
       </c>
       <c r="E33">
-        <v>-69.65244802623637</v>
+        <v>-69.65244802623651</v>
       </c>
       <c r="F33">
-        <v>-65.12945102590132</v>
+        <v>-65.12945102590143</v>
       </c>
     </row>
     <row r="34">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>-22.67366658266541</v>
+        <v>-22.67366658266549</v>
       </c>
       <c r="C34">
-        <v>-10.16724783285354</v>
+        <v>-10.16724783285353</v>
       </c>
       <c r="D34">
-        <v>-7.897714274615868</v>
+        <v>-7.897714274615731</v>
       </c>
       <c r="E34">
-        <v>-33.86520690644535</v>
+        <v>-33.86520690644537</v>
       </c>
       <c r="F34">
-        <v>-29.70416434338636</v>
+        <v>-29.7041643433864</v>
       </c>
     </row>
     <row r="35">
@@ -1125,16 +1125,16 @@
         <v>-27.37815033591808</v>
       </c>
       <c r="C35">
-        <v>-12.02767531031496</v>
+        <v>-12.02767531031497</v>
       </c>
       <c r="D35">
-        <v>-4.606504610030118</v>
+        <v>-4.606504610030022</v>
       </c>
       <c r="E35">
-        <v>-111.5164713338349</v>
+        <v>-111.5164713338351</v>
       </c>
       <c r="F35">
-        <v>-29.76763310117733</v>
+        <v>-29.76763310117743</v>
       </c>
     </row>
     <row r="36">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>-6.310352046492186</v>
+        <v>-6.310352046492143</v>
       </c>
       <c r="C36">
-        <v>6.818228919985556</v>
+        <v>6.818228919985547</v>
       </c>
       <c r="D36">
-        <v>25.22382458232034</v>
+        <v>25.22382458232039</v>
       </c>
       <c r="E36">
-        <v>-48.84171565898367</v>
+        <v>-48.84171565898377</v>
       </c>
       <c r="F36">
-        <v>-22.72949710352643</v>
+        <v>-22.72949710352652</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>-17.59645283421881</v>
+        <v>-17.59645283421876</v>
       </c>
       <c r="C37">
         <v>-3.72034007417332</v>
       </c>
       <c r="D37">
-        <v>31.70186529202556</v>
+        <v>31.70186529202563</v>
       </c>
       <c r="E37">
-        <v>-78.42645900826823</v>
+        <v>-78.42645900826837</v>
       </c>
       <c r="F37">
-        <v>-24.23626460948944</v>
+        <v>-24.23626460948955</v>
       </c>
     </row>
     <row r="38">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.3779735552694046</v>
+        <v>0.3779735552695183</v>
       </c>
       <c r="C38">
         <v>14.54180014523648</v>
       </c>
       <c r="D38">
-        <v>43.16031989087134</v>
+        <v>43.16031989087132</v>
       </c>
       <c r="E38">
-        <v>-47.3392746745438</v>
+        <v>-47.33927467454394</v>
       </c>
       <c r="F38">
-        <v>-26.67689484014776</v>
+        <v>-26.67689484014785</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>10.11690898952146</v>
+        <v>10.11690898952157</v>
       </c>
       <c r="C39">
-        <v>17.58498972711896</v>
+        <v>17.58498972711895</v>
       </c>
       <c r="D39">
-        <v>28.03931582585698</v>
+        <v>28.03931582585691</v>
       </c>
       <c r="E39">
-        <v>-59.16639394328249</v>
+        <v>-59.16639394328268</v>
       </c>
       <c r="F39">
-        <v>-74.10414599716592</v>
+        <v>-74.10414599716604</v>
       </c>
     </row>
     <row r="40">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>9.756047548847711</v>
+        <v>9.756047548847775</v>
       </c>
       <c r="C40">
-        <v>23.61669224187194</v>
+        <v>23.61669224187195</v>
       </c>
       <c r="D40">
-        <v>28.70904658936219</v>
+        <v>28.70904658936217</v>
       </c>
       <c r="E40">
-        <v>-37.0094031543053</v>
+        <v>-37.00940315430543</v>
       </c>
       <c r="F40">
-        <v>-21.01152252639752</v>
+        <v>-21.0115225263976</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>12.58547722908736</v>
+        <v>12.58547722908751</v>
       </c>
       <c r="C41">
-        <v>16.17726188155305</v>
+        <v>16.17726188155304</v>
       </c>
       <c r="D41">
-        <v>33.52207530386048</v>
+        <v>33.52207530386038</v>
       </c>
       <c r="E41">
-        <v>-77.60817131601615</v>
+        <v>-77.60817131601641</v>
       </c>
       <c r="F41">
-        <v>-91.81337635318674</v>
+        <v>-91.81337635318687</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>-31.70861815985621</v>
+        <v>-31.70861815985628</v>
       </c>
       <c r="C42">
-        <v>-13.06317056232228</v>
+        <v>-13.06317056232229</v>
       </c>
       <c r="D42">
-        <v>-8.342490410455794</v>
+        <v>-8.342490410455643</v>
       </c>
       <c r="E42">
-        <v>-41.83758629719885</v>
+        <v>-41.83758629719887</v>
       </c>
       <c r="F42">
-        <v>-10.8175378464768</v>
+        <v>-10.81753784647686</v>
       </c>
     </row>
     <row r="43">
@@ -1298,19 +1298,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>12.06050537697276</v>
+        <v>12.06050537697285</v>
       </c>
       <c r="C43">
-        <v>8.723248793507031</v>
+        <v>8.723248793507022</v>
       </c>
       <c r="D43">
-        <v>31.51931377967561</v>
+        <v>31.51931377967557</v>
       </c>
       <c r="E43">
-        <v>-55.72989533670915</v>
+        <v>-55.72989533670933</v>
       </c>
       <c r="F43">
-        <v>-47.51343113132047</v>
+        <v>-47.51343113132056</v>
       </c>
     </row>
     <row r="44">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>12.74617398111278</v>
+        <v>12.74617398111284</v>
       </c>
       <c r="C44">
-        <v>8.412329719927813</v>
+        <v>8.412329719927804</v>
       </c>
       <c r="D44">
-        <v>29.30058447476732</v>
+        <v>29.30058447476733</v>
       </c>
       <c r="E44">
-        <v>-57.44834054566255</v>
+        <v>-57.44834054566272</v>
       </c>
       <c r="F44">
-        <v>-18.88293921333036</v>
+        <v>-18.88293921333044</v>
       </c>
     </row>
     <row r="45">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>13.4347437115666</v>
+        <v>13.43474371156659</v>
       </c>
       <c r="C45">
-        <v>-0.9000163028746733</v>
+        <v>-0.9000163028746722</v>
       </c>
       <c r="D45">
-        <v>5.218352926976698</v>
+        <v>5.218352926976671</v>
       </c>
       <c r="E45">
-        <v>-80.65187860443686</v>
+        <v>-80.65187860443704</v>
       </c>
       <c r="F45">
-        <v>-34.62504216704922</v>
+        <v>-34.62504216704932</v>
       </c>
     </row>
     <row r="46">
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>9.571961564887625</v>
+        <v>9.57196156488776</v>
       </c>
       <c r="C46">
-        <v>1.644968160289966</v>
+        <v>1.644968160289946</v>
       </c>
       <c r="D46">
-        <v>13.25282062155032</v>
+        <v>13.25282062155022</v>
       </c>
       <c r="E46">
-        <v>-128.8204213324517</v>
+        <v>-128.820421332452</v>
       </c>
       <c r="F46">
-        <v>-47.4461073040104</v>
+        <v>-47.4461073040105</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>6.462543182891045</v>
+        <v>6.462543182891102</v>
       </c>
       <c r="C47">
-        <v>4.282839348251284</v>
+        <v>4.282839348251264</v>
       </c>
       <c r="D47">
-        <v>26.95072774798816</v>
+        <v>26.95072774798817</v>
       </c>
       <c r="E47">
-        <v>-38.38981316856293</v>
+        <v>-38.38981316856302</v>
       </c>
       <c r="F47">
-        <v>-29.52062997279965</v>
+        <v>-29.52062997279972</v>
       </c>
     </row>
     <row r="48">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>-2.020784158022213</v>
+        <v>-2.020784158022215</v>
       </c>
       <c r="C48">
-        <v>2.508278766537954</v>
+        <v>2.508278766537957</v>
       </c>
       <c r="D48">
-        <v>12.33572346770718</v>
+        <v>12.33572346770722</v>
       </c>
       <c r="E48">
-        <v>-44.5224772987831</v>
+        <v>-44.52247729878319</v>
       </c>
       <c r="F48">
-        <v>-47.62897306993838</v>
+        <v>-47.62897306993846</v>
       </c>
     </row>
     <row r="49">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>-6.371668403213558</v>
+        <v>-6.371668403213457</v>
       </c>
       <c r="C49">
-        <v>3.133118505588723</v>
+        <v>3.133118505588717</v>
       </c>
       <c r="D49">
-        <v>32.41763928798329</v>
+        <v>32.41763928798331</v>
       </c>
       <c r="E49">
-        <v>-93.54042597095923</v>
+        <v>-93.54042597095949</v>
       </c>
       <c r="F49">
-        <v>-35.22054026848354</v>
+        <v>-35.22054026848364</v>
       </c>
     </row>
     <row r="50">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>-20.37368375739159</v>
+        <v>-20.37368375739156</v>
       </c>
       <c r="C50">
-        <v>-8.957983196462671</v>
+        <v>-8.957983196462667</v>
       </c>
       <c r="D50">
-        <v>23.73445643135148</v>
+        <v>23.73445643135155</v>
       </c>
       <c r="E50">
-        <v>-52.63837657916676</v>
+        <v>-52.63837657916685</v>
       </c>
       <c r="F50">
-        <v>-57.71293357600599</v>
+        <v>-57.71293357600604</v>
       </c>
     </row>
     <row r="51">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>-21.12698443985256</v>
+        <v>-21.12698443985254</v>
       </c>
       <c r="C51">
-        <v>-7.930959111375499</v>
+        <v>-7.930959111375504</v>
       </c>
       <c r="D51">
-        <v>23.31940569294838</v>
+        <v>23.31940569294849</v>
       </c>
       <c r="E51">
-        <v>-66.67293110406915</v>
+        <v>-66.67293110406925</v>
       </c>
       <c r="F51">
-        <v>-12.82448757351499</v>
+        <v>-12.82448757351508</v>
       </c>
     </row>
     <row r="52">
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>23.47948220300992</v>
+        <v>23.47948220301002</v>
       </c>
       <c r="C52">
-        <v>13.79642459694742</v>
+        <v>13.79642459694738</v>
       </c>
       <c r="D52">
-        <v>33.07543246547004</v>
+        <v>33.07543246546999</v>
       </c>
       <c r="E52">
-        <v>-50.90865548450874</v>
+        <v>-50.90865548450891</v>
       </c>
       <c r="F52">
-        <v>-37.51195680642781</v>
+        <v>-37.51195680642792</v>
       </c>
     </row>
     <row r="53">
@@ -1518,19 +1518,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>8.273412555447546</v>
+        <v>8.27341255544761</v>
       </c>
       <c r="C53">
-        <v>10.23516631708486</v>
+        <v>10.23516631708485</v>
       </c>
       <c r="D53">
-        <v>23.90063953061023</v>
+        <v>23.90063953061021</v>
       </c>
       <c r="E53">
-        <v>-50.21527931244211</v>
+        <v>-50.21527931244226</v>
       </c>
       <c r="F53">
-        <v>-58.22398396672636</v>
+        <v>-58.22398396672647</v>
       </c>
     </row>
     <row r="54">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>-16.83362682083642</v>
+        <v>-16.8336268208364</v>
       </c>
       <c r="C54">
-        <v>-8.769782109898431</v>
+        <v>-8.769782109898427</v>
       </c>
       <c r="D54">
-        <v>9.423172222492166</v>
+        <v>9.423172222492232</v>
       </c>
       <c r="E54">
-        <v>-73.94993079371626</v>
+        <v>-73.94993079371641</v>
       </c>
       <c r="F54">
-        <v>-79.80766317564161</v>
+        <v>-79.80766317564165</v>
       </c>
     </row>
     <row r="55">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>2.62554146411301</v>
+        <v>2.625541464113065</v>
       </c>
       <c r="C55">
-        <v>24.28548348997775</v>
+        <v>24.28548348997776</v>
       </c>
       <c r="D55">
-        <v>20.85505737800752</v>
+        <v>20.85505737800753</v>
       </c>
       <c r="E55">
-        <v>-41.93176556710138</v>
+        <v>-41.93176556710148</v>
       </c>
       <c r="F55">
-        <v>-16.22226005411841</v>
+        <v>-16.22226005411849</v>
       </c>
     </row>
     <row r="56">
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>-13.66356297504969</v>
+        <v>-13.66356297504962</v>
       </c>
       <c r="C56">
-        <v>-1.408827596358023</v>
+        <v>-1.408827596358028</v>
       </c>
       <c r="D56">
-        <v>17.09051773618587</v>
+        <v>17.09051773618592</v>
       </c>
       <c r="E56">
-        <v>-136.117406956228</v>
+        <v>-136.1174069562283</v>
       </c>
       <c r="F56">
-        <v>-30.94715838785809</v>
+        <v>-30.94715838785821</v>
       </c>
     </row>
     <row r="57">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>-23.02638263644375</v>
+        <v>-23.02638263644376</v>
       </c>
       <c r="C57">
-        <v>-6.444359984561856</v>
+        <v>-6.444359984561864</v>
       </c>
       <c r="D57">
-        <v>-3.910443105163469</v>
+        <v>-3.910443105163392</v>
       </c>
       <c r="E57">
-        <v>-62.34177556185885</v>
+        <v>-62.34177556185895</v>
       </c>
       <c r="F57">
-        <v>-35.98119327384764</v>
+        <v>-35.98119327384772</v>
       </c>
     </row>
     <row r="58">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>3.56978082313487</v>
+        <v>3.569780823134974</v>
       </c>
       <c r="C58">
         <v>32.40776386542261</v>
       </c>
       <c r="D58">
-        <v>35.79372919335489</v>
+        <v>35.79372919335485</v>
       </c>
       <c r="E58">
-        <v>-41.28524804141392</v>
+        <v>-41.28524804141404</v>
       </c>
       <c r="F58">
-        <v>-18.63470229727638</v>
+        <v>-18.63470229727648</v>
       </c>
     </row>
     <row r="59">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>-3.416332413403384</v>
+        <v>-3.416332413403247</v>
       </c>
       <c r="C59">
         <v>12.21050354679096</v>
@@ -1659,10 +1659,10 @@
         <v>51.9573077490591</v>
       </c>
       <c r="E59">
-        <v>-50.05754923169116</v>
+        <v>-50.05754923169134</v>
       </c>
       <c r="F59">
-        <v>-22.64123328715832</v>
+        <v>-22.64123328715841</v>
       </c>
     </row>
     <row r="60">
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>-17.55436403292612</v>
+        <v>-17.55436403292611</v>
       </c>
       <c r="C60">
-        <v>-12.08187066234856</v>
+        <v>-12.08187066234857</v>
       </c>
       <c r="D60">
-        <v>22.71751339515039</v>
+        <v>22.7175133951505</v>
       </c>
       <c r="E60">
-        <v>-58.54403059047579</v>
+        <v>-58.54403059047587</v>
       </c>
       <c r="F60">
-        <v>-18.87026391788043</v>
+        <v>-18.87026391788052</v>
       </c>
     </row>
     <row r="61">
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>12.07572148665501</v>
+        <v>12.07572148665507</v>
       </c>
       <c r="C61">
         <v>19.0640054786775</v>
       </c>
       <c r="D61">
-        <v>29.82251417234045</v>
+        <v>29.82251417234044</v>
       </c>
       <c r="E61">
-        <v>-44.30561803476024</v>
+        <v>-44.30561803476039</v>
       </c>
       <c r="F61">
-        <v>-32.19274706812607</v>
+        <v>-32.19274706812617</v>
       </c>
     </row>
     <row r="62">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="B62">
-        <v>-20.36526632768485</v>
+        <v>-20.3652663276848</v>
       </c>
       <c r="C62">
-        <v>-8.220600712801996</v>
+        <v>-8.220600712802</v>
       </c>
       <c r="D62">
-        <v>24.84291844275169</v>
+        <v>24.84291844275178</v>
       </c>
       <c r="E62">
-        <v>-96.88056779858526</v>
+        <v>-96.88056779858545</v>
       </c>
       <c r="F62">
-        <v>-27.20942206909311</v>
+        <v>-27.20942206909322</v>
       </c>
     </row>
     <row r="63">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="B63">
-        <v>-20.11951288539019</v>
+        <v>-20.11951288539017</v>
       </c>
       <c r="C63">
-        <v>-7.738847296357959</v>
+        <v>-7.738847296357958</v>
       </c>
       <c r="D63">
-        <v>23.03436963190531</v>
+        <v>23.03436963190542</v>
       </c>
       <c r="E63">
-        <v>-66.52117707085824</v>
+        <v>-66.52117707085836</v>
       </c>
       <c r="F63">
-        <v>-27.28284487803107</v>
+        <v>-27.28284487803115</v>
       </c>
     </row>
     <row r="64">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>2.750697188926061</v>
+        <v>2.750697188926095</v>
       </c>
       <c r="C64">
-        <v>7.451769081148379</v>
+        <v>7.451769081148363</v>
       </c>
       <c r="D64">
-        <v>23.30844123379306</v>
+        <v>23.3084412337931</v>
       </c>
       <c r="E64">
-        <v>-34.4931161901425</v>
+        <v>-34.49311619014258</v>
       </c>
       <c r="F64">
-        <v>-11.94016577531786</v>
+        <v>-11.94016577531793</v>
       </c>
     </row>
     <row r="65">
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>-14.49597127994866</v>
+        <v>-14.49597127994864</v>
       </c>
       <c r="C65">
-        <v>2.086404131922059</v>
+        <v>2.086404131922071</v>
       </c>
       <c r="D65">
-        <v>19.88897665064138</v>
+        <v>19.88897665064147</v>
       </c>
       <c r="E65">
-        <v>-58.5979327253425</v>
+        <v>-58.59793272534263</v>
       </c>
       <c r="F65">
-        <v>-21.18605737138681</v>
+        <v>-21.18605737138688</v>
       </c>
     </row>
     <row r="66">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B66">
-        <v>8.85841648815301</v>
+        <v>8.8584164881531</v>
       </c>
       <c r="C66">
-        <v>12.1803218209309</v>
+        <v>12.18032182093089</v>
       </c>
       <c r="D66">
-        <v>29.58914023711006</v>
+        <v>29.58914023711003</v>
       </c>
       <c r="E66">
-        <v>-49.15667020834626</v>
+        <v>-49.15667020834641</v>
       </c>
       <c r="F66">
-        <v>-50.33358207347069</v>
+        <v>-50.33358207347079</v>
       </c>
     </row>
     <row r="67">
@@ -1829,16 +1829,16 @@
         <v>-25.52567295398748</v>
       </c>
       <c r="C67">
-        <v>-8.067886789949306</v>
+        <v>-8.067886789949313</v>
       </c>
       <c r="D67">
-        <v>-2.899777852314287</v>
+        <v>-2.899777852314197</v>
       </c>
       <c r="E67">
-        <v>-100.9606603266795</v>
+        <v>-100.9606603266797</v>
       </c>
       <c r="F67">
-        <v>-30.02685410876151</v>
+        <v>-30.02685410876162</v>
       </c>
     </row>
     <row r="68">
@@ -1854,13 +1854,13 @@
         <v>-11.31747615868614</v>
       </c>
       <c r="D68">
-        <v>20.36017284142843</v>
+        <v>20.36017284142857</v>
       </c>
       <c r="E68">
-        <v>-52.46804669098599</v>
+        <v>-52.46804669098606</v>
       </c>
       <c r="F68">
-        <v>-8.248499330149716</v>
+        <v>-8.248499330149787</v>
       </c>
     </row>
     <row r="69">
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B69">
-        <v>9.631466432440281</v>
+        <v>9.631466432440384</v>
       </c>
       <c r="C69">
-        <v>14.39457004496348</v>
+        <v>14.39457004496346</v>
       </c>
       <c r="D69">
-        <v>24.44202971655588</v>
+        <v>24.44202971655583</v>
       </c>
       <c r="E69">
-        <v>-61.07336688576446</v>
+        <v>-61.07336688576464</v>
       </c>
       <c r="F69">
-        <v>-69.09579009605297</v>
+        <v>-69.09579009605308</v>
       </c>
     </row>
     <row r="70">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B70">
-        <v>8.6136406028929</v>
+        <v>8.613640602893005</v>
       </c>
       <c r="C70">
-        <v>1.160685139286402</v>
+        <v>1.160685139286384</v>
       </c>
       <c r="D70">
-        <v>11.37647337580525</v>
+        <v>11.37647337580516</v>
       </c>
       <c r="E70">
-        <v>-132.1671229553105</v>
+        <v>-132.1671229553108</v>
       </c>
       <c r="F70">
-        <v>-53.40830879319412</v>
+        <v>-53.40830879319427</v>
       </c>
     </row>
     <row r="71">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B71">
-        <v>-3.647649921250868</v>
+        <v>-3.647649921250837</v>
       </c>
       <c r="C71">
-        <v>-3.183743480995871</v>
+        <v>-3.183743480995884</v>
       </c>
       <c r="D71">
-        <v>8.130710275912039</v>
+        <v>8.130710275912028</v>
       </c>
       <c r="E71">
-        <v>-18.64710150167582</v>
+        <v>-18.64710150167587</v>
       </c>
       <c r="F71">
-        <v>-12.06669935185559</v>
+        <v>-12.06669935185563</v>
       </c>
     </row>
     <row r="72">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="B72">
-        <v>-25.67669070555506</v>
+        <v>-25.67669070555517</v>
       </c>
       <c r="C72">
-        <v>-13.11011771775782</v>
+        <v>-13.11011771775781</v>
       </c>
       <c r="D72">
-        <v>-4.285358628209176</v>
+        <v>-4.285358628208996</v>
       </c>
       <c r="E72">
-        <v>1.305461319505554</v>
+        <v>1.30546131950565</v>
       </c>
       <c r="F72">
-        <v>-4.958925201476866</v>
+        <v>-4.95892520147687</v>
       </c>
     </row>
     <row r="73">
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B73">
-        <v>6.689745744481501</v>
+        <v>6.689745744481565</v>
       </c>
       <c r="C73">
-        <v>7.6556311158836</v>
+        <v>7.655631115883588</v>
       </c>
       <c r="D73">
-        <v>26.81020770537731</v>
+        <v>26.8102077053773</v>
       </c>
       <c r="E73">
-        <v>-54.74542978479727</v>
+        <v>-54.74542978479741</v>
       </c>
       <c r="F73">
-        <v>-45.4814170407513</v>
+        <v>-45.48141704075141</v>
       </c>
     </row>
     <row r="74">
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>5.571309004356545</v>
+        <v>5.571309004356607</v>
       </c>
       <c r="C74">
-        <v>7.508121690970612</v>
+        <v>7.508121690970597</v>
       </c>
       <c r="D74">
-        <v>23.56972927390102</v>
+        <v>23.56972927390101</v>
       </c>
       <c r="E74">
-        <v>-69.49859304769845</v>
+        <v>-69.49859304769863</v>
       </c>
       <c r="F74">
-        <v>-54.73068946471029</v>
+        <v>-54.73068946471039</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-wa-fa.xlsx
+++ b/results/df-wa-fa.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PA5</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PA3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PA1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PA4</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PA2</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.484292820072136</v>
+        <v>-0.2688201687347019</v>
       </c>
       <c r="C2">
-        <v>7.766254122361534</v>
+        <v>0.9955288223683463</v>
       </c>
       <c r="D2">
-        <v>21.42338294062889</v>
+        <v>0.1381558025231068</v>
       </c>
       <c r="E2">
-        <v>-37.17839989213542</v>
+        <v>0.7988743063097058</v>
       </c>
       <c r="F2">
-        <v>-34.38031403717338</v>
+        <v>-0.08952611071517343</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>-15.2877198196364</v>
+        <v>-0.6518882033553909</v>
       </c>
       <c r="C3">
-        <v>-2.043989946310271</v>
+        <v>-0.3165426950703941</v>
       </c>
       <c r="D3">
-        <v>10.35337284577389</v>
+        <v>-0.06924395960174223</v>
       </c>
       <c r="E3">
-        <v>-105.2710824772991</v>
+        <v>-2.050917686754575</v>
       </c>
       <c r="F3">
-        <v>-29.99453119831447</v>
+        <v>-0.08209832479871485</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.793724438016614</v>
+        <v>-0.02902415831132235</v>
       </c>
       <c r="C4">
-        <v>11.70155786068526</v>
+        <v>1.06271998113152</v>
       </c>
       <c r="D4">
-        <v>24.13845363980901</v>
+        <v>0.218272652667645</v>
       </c>
       <c r="E4">
-        <v>-34.53732022927532</v>
+        <v>0.4444525467561777</v>
       </c>
       <c r="F4">
-        <v>-11.63271617616956</v>
+        <v>0.7675087690636783</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>-21.62862490443722</v>
+        <v>-0.3846738140564159</v>
       </c>
       <c r="C5">
-        <v>-9.910424927333652</v>
+        <v>-0.7996305713325111</v>
       </c>
       <c r="D5">
-        <v>14.18582752945944</v>
+        <v>-0.4613626956578869</v>
       </c>
       <c r="E5">
-        <v>-158.0744156658094</v>
+        <v>-3.08868073735629</v>
       </c>
       <c r="F5">
-        <v>-34.76002309902168</v>
+        <v>0.8840236306673875</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>-17.76045392243706</v>
+        <v>0.0271907773297304</v>
       </c>
       <c r="C6">
-        <v>-5.232462677339868</v>
+        <v>-0.6145774368024841</v>
       </c>
       <c r="D6">
-        <v>18.21675910902361</v>
+        <v>-0.3416111057991652</v>
       </c>
       <c r="E6">
-        <v>-79.51994100280859</v>
+        <v>-1.087373177083624</v>
       </c>
       <c r="F6">
-        <v>-29.1257790504999</v>
+        <v>-0.01399986094222147</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>-19.77067571822381</v>
+        <v>-0.8283197538043962</v>
       </c>
       <c r="C7">
-        <v>-14.14505462290256</v>
+        <v>-0.9346407981697127</v>
       </c>
       <c r="D7">
-        <v>7.172001249465479</v>
+        <v>-0.8049038514162021</v>
       </c>
       <c r="E7">
-        <v>-63.22687314463947</v>
+        <v>0.340055055658009</v>
       </c>
       <c r="F7">
-        <v>-115.0456089324425</v>
+        <v>-3.91178228651439</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.163599331139356</v>
+        <v>0.1680761759707992</v>
       </c>
       <c r="C8">
-        <v>6.274545762301697</v>
+        <v>1.021045004500212</v>
       </c>
       <c r="D8">
-        <v>24.64407947981324</v>
+        <v>-0.2522341035724975</v>
       </c>
       <c r="E8">
-        <v>-47.97183003713253</v>
+        <v>0.8318377725770543</v>
       </c>
       <c r="F8">
-        <v>-48.23137655739152</v>
+        <v>-0.6980378197447847</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>-28.89708699347064</v>
+        <v>1.074168669499267</v>
       </c>
       <c r="C9">
-        <v>-19.06916589093361</v>
+        <v>-1.534952511077777</v>
       </c>
       <c r="D9">
-        <v>26.76888534741714</v>
+        <v>-1.745209572951216</v>
       </c>
       <c r="E9">
-        <v>-62.40362572222666</v>
+        <v>-0.1626686919145107</v>
       </c>
       <c r="F9">
-        <v>-16.98012229159777</v>
+        <v>0.6524635463434745</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>12.38497430994205</v>
+        <v>0.8091341173605485</v>
       </c>
       <c r="C10">
-        <v>10.72341939288637</v>
+        <v>1.140849226550628</v>
       </c>
       <c r="D10">
-        <v>30.6202803471542</v>
+        <v>0.0717781211201752</v>
       </c>
       <c r="E10">
-        <v>-64.33099755230789</v>
+        <v>0.3289136136874196</v>
       </c>
       <c r="F10">
-        <v>-69.81765046808556</v>
+        <v>-1.542627225396032</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.883784813099714</v>
+        <v>0.8872393595086412</v>
       </c>
       <c r="C11">
-        <v>38.91464712762979</v>
+        <v>-0.5096222050200284</v>
       </c>
       <c r="D11">
-        <v>35.87829982731666</v>
+        <v>3.526598839511348</v>
       </c>
       <c r="E11">
-        <v>-43.21873228055506</v>
+        <v>0.5562644130392456</v>
       </c>
       <c r="F11">
-        <v>-18.2100613073196</v>
+        <v>0.5486964500779717</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>2.177551995229658</v>
+        <v>-1.373071737580172</v>
       </c>
       <c r="C12">
-        <v>-2.242662579399437</v>
+        <v>0.2307949098366827</v>
       </c>
       <c r="D12">
-        <v>-0.2102101280768179</v>
+        <v>-0.3960973025801267</v>
       </c>
       <c r="E12">
-        <v>-63.36721411762479</v>
+        <v>-0.2756017111254084</v>
       </c>
       <c r="F12">
-        <v>-58.64793647948744</v>
+        <v>-1.203082265468011</v>
       </c>
     </row>
     <row r="13">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.240368639466016</v>
+        <v>0.1938974144900699</v>
       </c>
       <c r="C13">
-        <v>12.89006187491448</v>
+        <v>0.3328318057154074</v>
       </c>
       <c r="D13">
-        <v>26.09020865057444</v>
+        <v>0.589632156468865</v>
       </c>
       <c r="E13">
-        <v>-60.4336260393711</v>
+        <v>0.4250346197690015</v>
       </c>
       <c r="F13">
-        <v>-54.06854243122003</v>
+        <v>-0.9264574826065213</v>
       </c>
     </row>
     <row r="14">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>22.08559964692234</v>
+        <v>0.2901257440573673</v>
       </c>
       <c r="C14">
-        <v>13.69783210800477</v>
+        <v>2.229214146490443</v>
       </c>
       <c r="D14">
-        <v>27.67240521124635</v>
+        <v>0.01639119857918317</v>
       </c>
       <c r="E14">
-        <v>-58.00431164924055</v>
+        <v>0.5091591620342266</v>
       </c>
       <c r="F14">
-        <v>-59.32941747583452</v>
+        <v>-1.29047087925348</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>-20.10060057414772</v>
+        <v>-0.9714433738257907</v>
       </c>
       <c r="C15">
-        <v>-8.901186276251149</v>
+        <v>-0.5450135249421363</v>
       </c>
       <c r="D15">
-        <v>8.445230171560706</v>
+        <v>-0.4513903492212469</v>
       </c>
       <c r="E15">
-        <v>-145.3101340347597</v>
+        <v>-2.632738996221534</v>
       </c>
       <c r="F15">
-        <v>-33.51610289814397</v>
+        <v>0.8911810872872712</v>
       </c>
     </row>
     <row r="16">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>-17.84027268911919</v>
+        <v>0.7374629355567162</v>
       </c>
       <c r="C16">
-        <v>-5.076981530994272</v>
+        <v>-0.8593653910090008</v>
       </c>
       <c r="D16">
-        <v>25.0739207125137</v>
+        <v>-0.6975881947068076</v>
       </c>
       <c r="E16">
-        <v>-46.38374469867691</v>
+        <v>0.2684699010929649</v>
       </c>
       <c r="F16">
-        <v>-12.95008640504139</v>
+        <v>0.8064218527814985</v>
       </c>
     </row>
     <row r="17">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>-4.313381854742705</v>
+        <v>1.005635491691848</v>
       </c>
       <c r="C17">
-        <v>8.435746286333835</v>
+        <v>-0.300083312806355</v>
       </c>
       <c r="D17">
-        <v>31.68472604154341</v>
+        <v>0.267328760525786</v>
       </c>
       <c r="E17">
-        <v>-44.46327636082809</v>
+        <v>0.736408792676054</v>
       </c>
       <c r="F17">
-        <v>-28.30784691269869</v>
+        <v>0.1766511507968151</v>
       </c>
     </row>
     <row r="18">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>11.42723982599228</v>
+        <v>0.1073191915131849</v>
       </c>
       <c r="C18">
-        <v>39.56162476135607</v>
+        <v>0.3125074092781055</v>
       </c>
       <c r="D18">
-        <v>28.18269272337577</v>
+        <v>3.685354954331901</v>
       </c>
       <c r="E18">
-        <v>-41.99324870988288</v>
+        <v>0.6777312012079307</v>
       </c>
       <c r="F18">
-        <v>-20.59672673731597</v>
+        <v>0.2298251470268973</v>
       </c>
     </row>
     <row r="19">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.201516470414143</v>
+        <v>0.7807965869793916</v>
       </c>
       <c r="C19">
-        <v>4.119843847350367</v>
+        <v>0.5822319947450866</v>
       </c>
       <c r="D19">
-        <v>30.63829586022166</v>
+        <v>-0.4303942693114147</v>
       </c>
       <c r="E19">
-        <v>-56.30895794182077</v>
+        <v>0.3509335329086895</v>
       </c>
       <c r="F19">
-        <v>-32.59711971901727</v>
+        <v>-0.02108758519883795</v>
       </c>
     </row>
     <row r="20">
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>-30.41576143243626</v>
+        <v>-2.984647253700783</v>
       </c>
       <c r="C20">
-        <v>-11.11639035750938</v>
+        <v>-1.038334660441413</v>
       </c>
       <c r="D20">
-        <v>-17.48524683693827</v>
+        <v>-0.7532626996383428</v>
       </c>
       <c r="E20">
-        <v>-36.6523284364436</v>
+        <v>0.7129500812149956</v>
       </c>
       <c r="F20">
-        <v>-21.46612581425092</v>
+        <v>0.7219440719518018</v>
       </c>
     </row>
     <row r="21">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>-18.02792979728122</v>
+        <v>-0.5360342490763601</v>
       </c>
       <c r="C21">
-        <v>-6.507983132858945</v>
+        <v>-0.5409648466614176</v>
       </c>
       <c r="D21">
-        <v>13.71241735769192</v>
+        <v>-0.2913883489694505</v>
       </c>
       <c r="E21">
-        <v>-163.3302416967353</v>
+        <v>-3.175755250745536</v>
       </c>
       <c r="F21">
-        <v>-36.89723384579919</v>
+        <v>0.86380856599798</v>
       </c>
     </row>
     <row r="22">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>12.25646780122952</v>
+        <v>0.4063299845123006</v>
       </c>
       <c r="C22">
-        <v>7.934460661816817</v>
+        <v>2.001996043638239</v>
       </c>
       <c r="D22">
-        <v>21.80914787051595</v>
+        <v>0.1814897394949501</v>
       </c>
       <c r="E22">
-        <v>-52.92740587554681</v>
+        <v>-0.5138150572563704</v>
       </c>
       <c r="F22">
-        <v>-12.60893061122522</v>
+        <v>0.7695404987637065</v>
       </c>
     </row>
     <row r="23">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>-2.171782795940709</v>
+        <v>0.8563031863206024</v>
       </c>
       <c r="C23">
-        <v>6.091105586587482</v>
+        <v>0.07985359347791227</v>
       </c>
       <c r="D23">
-        <v>31.55423755295043</v>
+        <v>-0.09882127147767988</v>
       </c>
       <c r="E23">
-        <v>-64.37579553426899</v>
+        <v>-0.03484314060062363</v>
       </c>
       <c r="F23">
-        <v>-28.33512012170677</v>
+        <v>0.1809550240747988</v>
       </c>
     </row>
     <row r="24">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>4.440097221695375</v>
+        <v>0.5990597959660571</v>
       </c>
       <c r="C24">
-        <v>23.94931361724784</v>
+        <v>0.05818658655457287</v>
       </c>
       <c r="D24">
-        <v>30.53773801822804</v>
+        <v>1.988034228894652</v>
       </c>
       <c r="E24">
-        <v>-44.37218294386896</v>
+        <v>0.5911450193726406</v>
       </c>
       <c r="F24">
-        <v>-30.10211037676153</v>
+        <v>-0.06640576812515564</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>-18.86738725502329</v>
+        <v>1.306038872917258</v>
       </c>
       <c r="C25">
-        <v>-6.199733056232441</v>
+        <v>-1.199097035173115</v>
       </c>
       <c r="D25">
-        <v>31.91628862502213</v>
+        <v>-0.7802079304008196</v>
       </c>
       <c r="E25">
-        <v>-70.57512430721388</v>
+        <v>-0.2759099608248732</v>
       </c>
       <c r="F25">
-        <v>-20.52122681971096</v>
+        <v>0.7871428711037681</v>
       </c>
     </row>
     <row r="26">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>-8.377421553753258</v>
+        <v>2.034431039193645</v>
       </c>
       <c r="C26">
-        <v>0.02293123726146096</v>
+        <v>-0.6179991170286399</v>
       </c>
       <c r="D26">
-        <v>42.65662446345802</v>
+        <v>-0.9215189605022571</v>
       </c>
       <c r="E26">
-        <v>-47.64607377601455</v>
+        <v>0.7485929688408725</v>
       </c>
       <c r="F26">
-        <v>-29.95534927644079</v>
+        <v>0.07321498649418201</v>
       </c>
     </row>
     <row r="27">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>-4.7993218330981</v>
+        <v>0.1019815888053183</v>
       </c>
       <c r="C27">
-        <v>6.01790819266799</v>
+        <v>-0.07507477608071597</v>
       </c>
       <c r="D27">
-        <v>23.0877968407485</v>
+        <v>0.03355126402642169</v>
       </c>
       <c r="E27">
-        <v>-29.78547331468887</v>
+        <v>1.398508629343769</v>
       </c>
       <c r="F27">
-        <v>-26.19234075589387</v>
+        <v>0.6177530835625883</v>
       </c>
     </row>
     <row r="28">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>-30.9917154991445</v>
+        <v>-0.594050291796431</v>
       </c>
       <c r="C28">
-        <v>-14.29195390035839</v>
+        <v>-1.665501295907702</v>
       </c>
       <c r="D28">
-        <v>7.681752211567824</v>
+        <v>-0.935712462666892</v>
       </c>
       <c r="E28">
-        <v>-52.8466726639553</v>
+        <v>0.2461276646276278</v>
       </c>
       <c r="F28">
-        <v>-15.85571521104271</v>
+        <v>0.8553262585933286</v>
       </c>
     </row>
     <row r="29">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.071248583600321</v>
+        <v>-0.2301951401386799</v>
       </c>
       <c r="C29">
-        <v>11.30432735606813</v>
+        <v>0.5158523029247278</v>
       </c>
       <c r="D29">
-        <v>19.35879645416102</v>
+        <v>0.8105435271984165</v>
       </c>
       <c r="E29">
-        <v>-63.71750513572712</v>
+        <v>0.1778275264938508</v>
       </c>
       <c r="F29">
-        <v>-66.88341738284595</v>
+        <v>-1.482211608280869</v>
       </c>
     </row>
     <row r="30">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>-31.18393141353324</v>
+        <v>-1.19340893937022</v>
       </c>
       <c r="C30">
-        <v>-14.19836156934356</v>
+        <v>-1.520867573685911</v>
       </c>
       <c r="D30">
-        <v>0.0934189058870647</v>
+        <v>-0.8237612563986658</v>
       </c>
       <c r="E30">
-        <v>-44.90963360010063</v>
+        <v>0.0581176769458624</v>
       </c>
       <c r="F30">
-        <v>-13.43989837671363</v>
+        <v>0.6362533730277624</v>
       </c>
     </row>
     <row r="31">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.53140037697961</v>
+        <v>0.4914499746865646</v>
       </c>
       <c r="C31">
-        <v>31.15977131634128</v>
+        <v>0.4855825526822297</v>
       </c>
       <c r="D31">
-        <v>32.1944768053618</v>
+        <v>2.234745733786216</v>
       </c>
       <c r="E31">
-        <v>-35.07788257978227</v>
+        <v>1.134462450352289</v>
       </c>
       <c r="F31">
-        <v>-11.85228768344863</v>
+        <v>1.067616433198994</v>
       </c>
     </row>
     <row r="32">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>-24.32064728985596</v>
+        <v>-1.622188414114364</v>
       </c>
       <c r="C32">
-        <v>-8.973940525539829</v>
+        <v>-1.014647438508594</v>
       </c>
       <c r="D32">
-        <v>-0.99106426240709</v>
+        <v>-0.5489025543389052</v>
       </c>
       <c r="E32">
-        <v>-91.59571151114038</v>
+        <v>-0.8721437010322654</v>
       </c>
       <c r="F32">
-        <v>-28.41669425740091</v>
+        <v>0.557557598506832</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>-14.10611496098711</v>
+        <v>0.2399039847283912</v>
       </c>
       <c r="C33">
-        <v>-6.223997147436585</v>
+        <v>-0.619686533850302</v>
       </c>
       <c r="D33">
-        <v>21.11813504026556</v>
+        <v>-0.6718809460117291</v>
       </c>
       <c r="E33">
-        <v>-69.65244802623651</v>
+        <v>-0.0386228255952981</v>
       </c>
       <c r="F33">
-        <v>-65.12945102590143</v>
+        <v>-1.476167156581327</v>
       </c>
     </row>
     <row r="34">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>-22.67366658266549</v>
+        <v>-2.082741055214232</v>
       </c>
       <c r="C34">
-        <v>-10.16724783285353</v>
+        <v>-0.4918281529080285</v>
       </c>
       <c r="D34">
-        <v>-7.897714274615731</v>
+        <v>-0.2936242232124178</v>
       </c>
       <c r="E34">
-        <v>-33.86520690644537</v>
+        <v>0.6005031736013869</v>
       </c>
       <c r="F34">
-        <v>-29.7041643433864</v>
+        <v>-0.1290055979748254</v>
       </c>
     </row>
     <row r="35">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>-27.37815033591808</v>
+        <v>-1.796875595717702</v>
       </c>
       <c r="C35">
-        <v>-12.02767531031497</v>
+        <v>-1.071996755784384</v>
       </c>
       <c r="D35">
-        <v>-4.606504610030022</v>
+        <v>-0.4899734348148768</v>
       </c>
       <c r="E35">
-        <v>-111.5164713338351</v>
+        <v>-1.668625103284744</v>
       </c>
       <c r="F35">
-        <v>-29.76763310117743</v>
+        <v>0.6350807135909879</v>
       </c>
     </row>
     <row r="36">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>-6.310352046492143</v>
+        <v>0.2912994153860335</v>
       </c>
       <c r="C36">
-        <v>6.818228919985547</v>
+        <v>-0.1422230959591727</v>
       </c>
       <c r="D36">
-        <v>25.22382458232039</v>
+        <v>0.2374896165812035</v>
       </c>
       <c r="E36">
-        <v>-48.84171565898377</v>
+        <v>0.2353733709284234</v>
       </c>
       <c r="F36">
-        <v>-22.72949710352652</v>
+        <v>0.432290473930602</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>-17.59645283421876</v>
+        <v>1.101185702544869</v>
       </c>
       <c r="C37">
-        <v>-3.72034007417332</v>
+        <v>-1.107754767019785</v>
       </c>
       <c r="D37">
-        <v>31.70186529202563</v>
+        <v>-0.5907171560239604</v>
       </c>
       <c r="E37">
-        <v>-78.42645900826837</v>
+        <v>-0.4916883466858582</v>
       </c>
       <c r="F37">
-        <v>-24.23626460948955</v>
+        <v>0.5654102601233341</v>
       </c>
     </row>
     <row r="38">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.3779735552695183</v>
+        <v>1.878739789079593</v>
       </c>
       <c r="C38">
-        <v>14.54180014523648</v>
+        <v>-0.2812294098292186</v>
       </c>
       <c r="D38">
-        <v>43.16031989087132</v>
+        <v>0.5401354616961795</v>
       </c>
       <c r="E38">
-        <v>-47.33927467454394</v>
+        <v>0.7349372339942684</v>
       </c>
       <c r="F38">
-        <v>-26.67689484014785</v>
+        <v>0.2725722552014494</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>10.11690898952157</v>
+        <v>0.05296980472259975</v>
       </c>
       <c r="C39">
-        <v>17.58498972711895</v>
+        <v>0.603237412557372</v>
       </c>
       <c r="D39">
-        <v>28.03931582585691</v>
+        <v>0.5604215868188722</v>
       </c>
       <c r="E39">
-        <v>-59.16639394328268</v>
+        <v>0.7607569308164242</v>
       </c>
       <c r="F39">
-        <v>-74.10414599716604</v>
+        <v>-1.75386010860005</v>
       </c>
     </row>
     <row r="40">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>9.756047548847775</v>
+        <v>0.08759615179240804</v>
       </c>
       <c r="C40">
-        <v>23.61669224187195</v>
+        <v>0.8958369537459304</v>
       </c>
       <c r="D40">
-        <v>28.70904658936217</v>
+        <v>1.534795862882171</v>
       </c>
       <c r="E40">
-        <v>-37.00940315430543</v>
+        <v>0.9066103980361085</v>
       </c>
       <c r="F40">
-        <v>-21.0115225263976</v>
+        <v>0.04451874491796576</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>12.58547722908751</v>
+        <v>0.7141460508096088</v>
       </c>
       <c r="C41">
-        <v>16.17726188155304</v>
+        <v>0.6849127930381078</v>
       </c>
       <c r="D41">
-        <v>33.52207530386038</v>
+        <v>0.3822759029276203</v>
       </c>
       <c r="E41">
-        <v>-77.60817131601641</v>
+        <v>0.2049556740114757</v>
       </c>
       <c r="F41">
-        <v>-91.81337635318687</v>
+        <v>-2.590775118894945</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>-31.70861815985628</v>
+        <v>-1.861994122172035</v>
       </c>
       <c r="C42">
-        <v>-13.06317056232229</v>
+        <v>-1.443329742133774</v>
       </c>
       <c r="D42">
-        <v>-8.342490410455643</v>
+        <v>-0.4975548291352492</v>
       </c>
       <c r="E42">
-        <v>-41.83758629719887</v>
+        <v>-0.1336083619523756</v>
       </c>
       <c r="F42">
-        <v>-10.81753784647686</v>
+        <v>0.6511793308783872</v>
       </c>
     </row>
     <row r="43">
@@ -1298,19 +1298,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>12.06050537697285</v>
+        <v>0.6231682230525097</v>
       </c>
       <c r="C43">
-        <v>8.723248793507022</v>
+        <v>1.48995708588787</v>
       </c>
       <c r="D43">
-        <v>31.51931377967557</v>
+        <v>-0.4243900210266937</v>
       </c>
       <c r="E43">
-        <v>-55.72989533670933</v>
+        <v>0.616639799728798</v>
       </c>
       <c r="F43">
-        <v>-47.51343113132056</v>
+        <v>-0.7941362787955056</v>
       </c>
     </row>
     <row r="44">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>12.74617398111284</v>
+        <v>0.6206549504439257</v>
       </c>
       <c r="C44">
-        <v>8.412329719927804</v>
+        <v>1.894551878866919</v>
       </c>
       <c r="D44">
-        <v>29.30058447476733</v>
+        <v>-0.3275010460574563</v>
       </c>
       <c r="E44">
-        <v>-57.44834054566272</v>
+        <v>0.1245518016915666</v>
       </c>
       <c r="F44">
-        <v>-18.88293921333044</v>
+        <v>0.5285658545272429</v>
       </c>
     </row>
     <row r="45">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>13.43474371156659</v>
+        <v>-1.171374583552797</v>
       </c>
       <c r="C45">
-        <v>-0.9000163028746722</v>
+        <v>1.817817078532678</v>
       </c>
       <c r="D45">
-        <v>5.218352926976671</v>
+        <v>-0.5961370731057276</v>
       </c>
       <c r="E45">
-        <v>-80.65187860443704</v>
+        <v>-0.7455876839610297</v>
       </c>
       <c r="F45">
-        <v>-34.62504216704932</v>
+        <v>0.5697686357491162</v>
       </c>
     </row>
     <row r="46">
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>9.57196156488776</v>
+        <v>-0.4705184048215725</v>
       </c>
       <c r="C46">
-        <v>1.644968160289946</v>
+        <v>0.8024919242636904</v>
       </c>
       <c r="D46">
-        <v>13.25282062155022</v>
+        <v>-0.4045981543087433</v>
       </c>
       <c r="E46">
-        <v>-128.820421332452</v>
+        <v>-1.802324105806822</v>
       </c>
       <c r="F46">
-        <v>-47.4461073040105</v>
+        <v>0.2731456806348694</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>6.462543182891102</v>
+        <v>0.4801507921386164</v>
       </c>
       <c r="C47">
-        <v>4.282839348251264</v>
+        <v>1.137597845375779</v>
       </c>
       <c r="D47">
-        <v>26.95072774798817</v>
+        <v>-0.508531964775793</v>
       </c>
       <c r="E47">
-        <v>-38.38981316856302</v>
+        <v>0.9025276160839405</v>
       </c>
       <c r="F47">
-        <v>-29.52062997279972</v>
+        <v>-0.03735617214365163</v>
       </c>
     </row>
     <row r="48">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>-2.020784158022215</v>
+        <v>-0.8303160953291293</v>
       </c>
       <c r="C48">
-        <v>2.508278766537957</v>
+        <v>0.6454752178131267</v>
       </c>
       <c r="D48">
-        <v>12.33572346770722</v>
+        <v>-0.1998315799372483</v>
       </c>
       <c r="E48">
-        <v>-44.52247729878319</v>
+        <v>0.5623085732017027</v>
       </c>
       <c r="F48">
-        <v>-47.62897306993846</v>
+        <v>-0.932940699301306</v>
       </c>
     </row>
     <row r="49">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>-6.371668403213457</v>
+        <v>0.9317815479009401</v>
       </c>
       <c r="C49">
-        <v>3.133118505588717</v>
+        <v>-0.2447272280354575</v>
       </c>
       <c r="D49">
-        <v>32.41763928798331</v>
+        <v>-0.4358473579695197</v>
       </c>
       <c r="E49">
-        <v>-93.54042597095949</v>
+        <v>-0.5866998372828739</v>
       </c>
       <c r="F49">
-        <v>-35.22054026848364</v>
+        <v>0.4132543988635367</v>
       </c>
     </row>
     <row r="50">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>-20.37368375739156</v>
+        <v>0.6078923186837022</v>
       </c>
       <c r="C50">
-        <v>-8.957983196462667</v>
+        <v>-1.259457956282307</v>
       </c>
       <c r="D50">
-        <v>23.73445643135155</v>
+        <v>-0.8014763150922816</v>
       </c>
       <c r="E50">
-        <v>-52.63837657916685</v>
+        <v>0.473595665422192</v>
       </c>
       <c r="F50">
-        <v>-57.71293357600604</v>
+        <v>-1.253164229059113</v>
       </c>
     </row>
     <row r="51">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>-21.12698443985254</v>
+        <v>0.4493822300705997</v>
       </c>
       <c r="C51">
-        <v>-7.930959111375504</v>
+        <v>-1.144362290312231</v>
       </c>
       <c r="D51">
-        <v>23.31940569294849</v>
+        <v>-0.8013859563729981</v>
       </c>
       <c r="E51">
-        <v>-66.67293110406925</v>
+        <v>-0.004638631842306784</v>
       </c>
       <c r="F51">
-        <v>-12.82448757351508</v>
+        <v>1.40057119776134</v>
       </c>
     </row>
     <row r="52">
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>23.47948220301002</v>
+        <v>0.9177194783234968</v>
       </c>
       <c r="C52">
-        <v>13.79642459694738</v>
+        <v>2.442498928073829</v>
       </c>
       <c r="D52">
-        <v>33.07543246546999</v>
+        <v>-0.07788015006752824</v>
       </c>
       <c r="E52">
-        <v>-50.90865548450891</v>
+        <v>0.5638832199073154</v>
       </c>
       <c r="F52">
-        <v>-37.51195680642792</v>
+        <v>-0.1882314328056684</v>
       </c>
     </row>
     <row r="53">
@@ -1518,19 +1518,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>8.27341255544761</v>
+        <v>-0.1335669126191893</v>
       </c>
       <c r="C53">
-        <v>10.23516631708485</v>
+        <v>1.132283094617962</v>
       </c>
       <c r="D53">
-        <v>23.90063953061021</v>
+        <v>0.01794206015122124</v>
       </c>
       <c r="E53">
-        <v>-50.21527931244226</v>
+        <v>0.7056771831459373</v>
       </c>
       <c r="F53">
-        <v>-58.22398396672647</v>
+        <v>-1.149335839457895</v>
       </c>
     </row>
     <row r="54">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>-16.8336268208364</v>
+        <v>-0.7398715002426289</v>
       </c>
       <c r="C54">
-        <v>-8.769782109898427</v>
+        <v>-0.627259350128521</v>
       </c>
       <c r="D54">
-        <v>9.423172222492232</v>
+        <v>-0.4455030619271774</v>
       </c>
       <c r="E54">
-        <v>-73.94993079371641</v>
+        <v>-0.1570943438363841</v>
       </c>
       <c r="F54">
-        <v>-79.80766317564165</v>
+        <v>-1.994069625926579</v>
       </c>
     </row>
     <row r="55">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>2.625541464113065</v>
+        <v>-0.4831902889875536</v>
       </c>
       <c r="C55">
-        <v>24.28548348997776</v>
+        <v>0.3660102686803183</v>
       </c>
       <c r="D55">
-        <v>20.85505737800753</v>
+        <v>2.210919235893418</v>
       </c>
       <c r="E55">
-        <v>-41.93176556710148</v>
+        <v>0.3995744818958333</v>
       </c>
       <c r="F55">
-        <v>-16.22226005411849</v>
+        <v>0.3256836068689998</v>
       </c>
     </row>
     <row r="56">
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>-13.66356297504962</v>
+        <v>-0.4395899325248406</v>
       </c>
       <c r="C56">
-        <v>-1.408827596358028</v>
+        <v>-0.415658672095528</v>
       </c>
       <c r="D56">
-        <v>17.09051773618592</v>
+        <v>-0.4437238142742885</v>
       </c>
       <c r="E56">
-        <v>-136.1174069562283</v>
+        <v>-1.921658992390666</v>
       </c>
       <c r="F56">
-        <v>-30.94715838785821</v>
+        <v>1.063736264723271</v>
       </c>
     </row>
     <row r="57">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>-23.02638263644376</v>
+        <v>-1.790850994903468</v>
       </c>
       <c r="C57">
-        <v>-6.444359984561864</v>
+        <v>-0.9806309243192004</v>
       </c>
       <c r="D57">
-        <v>-3.910443105163392</v>
+        <v>-0.1726008277997915</v>
       </c>
       <c r="E57">
-        <v>-62.34177556185895</v>
+        <v>0.01129426669899575</v>
       </c>
       <c r="F57">
-        <v>-35.98119327384772</v>
+        <v>-0.1083840367753024</v>
       </c>
     </row>
     <row r="58">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>3.569780823134974</v>
+        <v>0.9999749211889113</v>
       </c>
       <c r="C58">
-        <v>32.40776386542261</v>
+        <v>-0.4616300231546042</v>
       </c>
       <c r="D58">
-        <v>35.79372919335485</v>
+        <v>2.850905826575788</v>
       </c>
       <c r="E58">
-        <v>-41.28524804141404</v>
+        <v>0.6169130592853459</v>
       </c>
       <c r="F58">
-        <v>-18.63470229727648</v>
+        <v>0.5437137480037398</v>
       </c>
     </row>
     <row r="59">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>-3.416332413403247</v>
+        <v>2.705439253715278</v>
       </c>
       <c r="C59">
-        <v>12.21050354679096</v>
+        <v>-0.8441868000610497</v>
       </c>
       <c r="D59">
-        <v>51.9573077490591</v>
+        <v>0.07158111913320514</v>
       </c>
       <c r="E59">
-        <v>-50.05754923169134</v>
+        <v>0.6743900297056132</v>
       </c>
       <c r="F59">
-        <v>-22.64123328715841</v>
+        <v>0.5976862749616747</v>
       </c>
     </row>
     <row r="60">
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>-17.55436403292611</v>
+        <v>0.3733174598364152</v>
       </c>
       <c r="C60">
-        <v>-12.08187066234857</v>
+        <v>-0.2607354431462653</v>
       </c>
       <c r="D60">
-        <v>22.7175133951505</v>
+        <v>-1.393785431484458</v>
       </c>
       <c r="E60">
-        <v>-58.54403059047587</v>
+        <v>0.07115962803845174</v>
       </c>
       <c r="F60">
-        <v>-18.87026391788052</v>
+        <v>1.030712716857571</v>
       </c>
     </row>
     <row r="61">
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>12.07572148665507</v>
+        <v>0.3000540848291695</v>
       </c>
       <c r="C61">
-        <v>19.0640054786775</v>
+        <v>1.116748384394008</v>
       </c>
       <c r="D61">
-        <v>29.82251417234044</v>
+        <v>0.7986350594625445</v>
       </c>
       <c r="E61">
-        <v>-44.30561803476039</v>
+        <v>0.7073297862743592</v>
       </c>
       <c r="F61">
-        <v>-32.19274706812617</v>
+        <v>-0.09255091861739967</v>
       </c>
     </row>
     <row r="62">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="B62">
-        <v>-20.3652663276848</v>
+        <v>0.6221099063484571</v>
       </c>
       <c r="C62">
-        <v>-8.220600712802</v>
+        <v>-0.9990939343564121</v>
       </c>
       <c r="D62">
-        <v>24.84291844275178</v>
+        <v>-0.7454528071447685</v>
       </c>
       <c r="E62">
-        <v>-96.88056779858545</v>
+        <v>-1.160076729259183</v>
       </c>
       <c r="F62">
-        <v>-27.20942206909322</v>
+        <v>0.6872225071547007</v>
       </c>
     </row>
     <row r="63">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="B63">
-        <v>-20.11951288539017</v>
+        <v>0.4792849435367669</v>
       </c>
       <c r="C63">
-        <v>-7.738847296357958</v>
+        <v>-0.95884199566148</v>
       </c>
       <c r="D63">
-        <v>23.03436963190542</v>
+        <v>-0.6706161143768061</v>
       </c>
       <c r="E63">
-        <v>-66.52117707085836</v>
+        <v>-0.4850855857357232</v>
       </c>
       <c r="F63">
-        <v>-27.28284487803115</v>
+        <v>0.06561187313957326</v>
       </c>
     </row>
     <row r="64">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>2.750697188926095</v>
+        <v>0.1929602761560958</v>
       </c>
       <c r="C64">
-        <v>7.451769081148363</v>
+        <v>0.9201636843179424</v>
       </c>
       <c r="D64">
-        <v>23.3084412337931</v>
+        <v>0.1879813004045952</v>
       </c>
       <c r="E64">
-        <v>-34.49311619014258</v>
+        <v>0.7773853779224823</v>
       </c>
       <c r="F64">
-        <v>-11.94016577531793</v>
+        <v>0.8926722147965074</v>
       </c>
     </row>
     <row r="65">
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>-14.49597127994864</v>
+        <v>0.08586048850386861</v>
       </c>
       <c r="C65">
-        <v>2.086404131922071</v>
+        <v>-0.6351393973623987</v>
       </c>
       <c r="D65">
-        <v>19.88897665064147</v>
+        <v>0.4622893534073586</v>
       </c>
       <c r="E65">
-        <v>-58.59793272534263</v>
+        <v>-0.005454014266564694</v>
       </c>
       <c r="F65">
-        <v>-21.18605737138688</v>
+        <v>0.4984183096687459</v>
       </c>
     </row>
     <row r="66">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B66">
-        <v>8.8584164881531</v>
+        <v>0.394961387860051</v>
       </c>
       <c r="C66">
-        <v>12.18032182093089</v>
+        <v>0.8772438385498563</v>
       </c>
       <c r="D66">
-        <v>29.58914023711003</v>
+        <v>0.05221260436513564</v>
       </c>
       <c r="E66">
-        <v>-49.15667020834641</v>
+        <v>0.8357650988388652</v>
       </c>
       <c r="F66">
-        <v>-50.33358207347079</v>
+        <v>-0.8156873996828781</v>
       </c>
     </row>
     <row r="67">
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="B67">
-        <v>-25.52567295398748</v>
+        <v>-1.712936113609338</v>
       </c>
       <c r="C67">
-        <v>-8.067886789949313</v>
+        <v>-1.087311402197271</v>
       </c>
       <c r="D67">
-        <v>-2.899777852314197</v>
+        <v>-0.1018681738458162</v>
       </c>
       <c r="E67">
-        <v>-100.9606603266797</v>
+        <v>-1.278026252551303</v>
       </c>
       <c r="F67">
-        <v>-30.02685410876162</v>
+        <v>0.5747522576155159</v>
       </c>
     </row>
     <row r="68">
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="B68">
-        <v>-24.29901754198325</v>
+        <v>0.3749430820418194</v>
       </c>
       <c r="C68">
-        <v>-11.31747615868614</v>
+        <v>-1.190475741616546</v>
       </c>
       <c r="D68">
-        <v>20.36017284142857</v>
+        <v>-0.9509731601274248</v>
       </c>
       <c r="E68">
-        <v>-52.46804669098606</v>
+        <v>0.2070911532827036</v>
       </c>
       <c r="F68">
-        <v>-8.248499330149787</v>
+        <v>1.355248820916153</v>
       </c>
     </row>
     <row r="69">
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B69">
-        <v>9.631466432440384</v>
+        <v>0.1562262769754145</v>
       </c>
       <c r="C69">
-        <v>14.39457004496346</v>
+        <v>0.8513521286804748</v>
       </c>
       <c r="D69">
-        <v>24.44202971655583</v>
+        <v>0.7769108809011015</v>
       </c>
       <c r="E69">
-        <v>-61.07336688576464</v>
+        <v>0.3177254161629968</v>
       </c>
       <c r="F69">
-        <v>-69.09579009605308</v>
+        <v>-1.597487261547717</v>
       </c>
     </row>
     <row r="70">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B70">
-        <v>8.613640602893005</v>
+        <v>-0.6053172179304849</v>
       </c>
       <c r="C70">
-        <v>1.160685139286384</v>
+        <v>0.7083835429693014</v>
       </c>
       <c r="D70">
-        <v>11.37647337580516</v>
+        <v>-0.3689271153431964</v>
       </c>
       <c r="E70">
-        <v>-132.1671229553108</v>
+        <v>-2.006491591787411</v>
       </c>
       <c r="F70">
-        <v>-53.40830879319427</v>
+        <v>0.0115162559722154</v>
       </c>
     </row>
     <row r="71">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B71">
-        <v>-3.647649921250837</v>
+        <v>-0.6256161959693575</v>
       </c>
       <c r="C71">
-        <v>-3.183743480995884</v>
+        <v>-0.3711601989040982</v>
       </c>
       <c r="D71">
-        <v>8.130710275912028</v>
+        <v>-0.6070435169151793</v>
       </c>
       <c r="E71">
-        <v>-18.64710150167587</v>
+        <v>1.550836651061766</v>
       </c>
       <c r="F71">
-        <v>-12.06669935185563</v>
+        <v>1.440613456140855</v>
       </c>
     </row>
     <row r="72">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="B72">
-        <v>-25.67669070555517</v>
+        <v>-1.540494394352175</v>
       </c>
       <c r="C72">
-        <v>-13.11011771775781</v>
+        <v>-0.585285402775296</v>
       </c>
       <c r="D72">
-        <v>-4.285358628208996</v>
+        <v>-0.5400365327052241</v>
       </c>
       <c r="E72">
-        <v>1.30546131950565</v>
+        <v>1.28751075443451</v>
       </c>
       <c r="F72">
-        <v>-4.95892520147687</v>
+        <v>0.8407691065130434</v>
       </c>
     </row>
     <row r="73">
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B73">
-        <v>6.689745744481565</v>
+        <v>0.3076194316853242</v>
       </c>
       <c r="C73">
-        <v>7.655631115883588</v>
+        <v>0.9828555547436247</v>
       </c>
       <c r="D73">
-        <v>26.8102077053773</v>
+        <v>-0.1573465391749255</v>
       </c>
       <c r="E73">
-        <v>-54.74542978479741</v>
+        <v>0.5162876305701184</v>
       </c>
       <c r="F73">
-        <v>-45.48141704075141</v>
+        <v>-0.6401324004239705</v>
       </c>
     </row>
     <row r="74">
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>5.571309004356607</v>
+        <v>0.08703604709735172</v>
       </c>
       <c r="C74">
-        <v>7.508121690970597</v>
+        <v>0.8923084126083369</v>
       </c>
       <c r="D74">
-        <v>23.56972927390101</v>
+        <v>0.07644534191351528</v>
       </c>
       <c r="E74">
-        <v>-69.49859304769863</v>
+        <v>-0.04532039249581284</v>
       </c>
       <c r="F74">
-        <v>-54.73068946471039</v>
+        <v>-0.9215278651998087</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-wa-fa.xlsx
+++ b/results/df-wa-fa.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.2688201687347019</v>
+        <v>0.4772910010114015</v>
       </c>
       <c r="C2">
-        <v>0.9955288223683463</v>
+        <v>0.6477677636777102</v>
       </c>
       <c r="D2">
-        <v>0.1381558025231068</v>
+        <v>0.3468083964406111</v>
       </c>
       <c r="E2">
-        <v>0.7988743063097058</v>
+        <v>0.8409081299224218</v>
       </c>
       <c r="F2">
-        <v>-0.08952611071517343</v>
+        <v>0.7141206217877775</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.6518882033553909</v>
+        <v>0.4099689956040277</v>
       </c>
       <c r="C3">
-        <v>-0.3165426950703941</v>
+        <v>0.3283735460778234</v>
       </c>
       <c r="D3">
-        <v>-0.06924395960174223</v>
+        <v>0.3086171989909032</v>
       </c>
       <c r="E3">
-        <v>-2.050917686754575</v>
+        <v>0.2379806819287397</v>
       </c>
       <c r="F3">
-        <v>-0.08209832479871485</v>
+        <v>0.7155083715494895</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.02902415831132235</v>
+        <v>0.5194337716196947</v>
       </c>
       <c r="C4">
-        <v>1.06271998113152</v>
+        <v>0.6641239358051915</v>
       </c>
       <c r="D4">
-        <v>0.218272652667645</v>
+        <v>0.3615613470301919</v>
       </c>
       <c r="E4">
-        <v>0.4444525467561777</v>
+        <v>0.7659234968260024</v>
       </c>
       <c r="F4">
-        <v>0.7675087690636783</v>
+        <v>0.8742423543698472</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.3846738140564159</v>
+        <v>0.4569303887130264</v>
       </c>
       <c r="C5">
-        <v>-0.7996305713325111</v>
+        <v>0.210776698482255</v>
       </c>
       <c r="D5">
-        <v>-0.4613626956578869</v>
+        <v>0.2364113106184987</v>
       </c>
       <c r="E5">
-        <v>-3.08868073735629</v>
+        <v>0.01842226178992746</v>
       </c>
       <c r="F5">
-        <v>0.8840236306673875</v>
+        <v>0.8960110850851712</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.0271907773297304</v>
+        <v>0.5293132234641942</v>
       </c>
       <c r="C6">
-        <v>-0.6145774368024841</v>
+        <v>0.255823710273961</v>
       </c>
       <c r="D6">
-        <v>-0.3416111057991652</v>
+        <v>0.2584627178445965</v>
       </c>
       <c r="E6">
-        <v>-1.087373177083624</v>
+        <v>0.4418367646386774</v>
       </c>
       <c r="F6">
-        <v>-0.01399986094222147</v>
+        <v>0.7282313589986034</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.8283197538043962</v>
+        <v>0.3789621646500418</v>
       </c>
       <c r="C7">
-        <v>-0.9346407981697127</v>
+        <v>0.1779115038678429</v>
       </c>
       <c r="D7">
-        <v>-0.8049038514162021</v>
+        <v>0.1731506396454595</v>
       </c>
       <c r="E7">
-        <v>0.340055055658009</v>
+        <v>0.7438362311455762</v>
       </c>
       <c r="F7">
-        <v>-3.91178228651439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1680761759707992</v>
+        <v>0.5540730225388566</v>
       </c>
       <c r="C8">
-        <v>1.021045004500212</v>
+        <v>0.6539791027090247</v>
       </c>
       <c r="D8">
-        <v>-0.2522341035724975</v>
+        <v>0.2749208598623625</v>
       </c>
       <c r="E8">
-        <v>0.8318377725770543</v>
+        <v>0.8478821752709835</v>
       </c>
       <c r="F8">
-        <v>-0.6980378197447847</v>
+        <v>0.6004310258970712</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.074168669499267</v>
+        <v>0.7133135705248195</v>
       </c>
       <c r="C9">
-        <v>-1.534952511077777</v>
+        <v>0.03177915718402662</v>
       </c>
       <c r="D9">
-        <v>-1.745209572951216</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.1626686919145107</v>
+        <v>0.6374755048513738</v>
       </c>
       <c r="F9">
-        <v>0.6524635463434745</v>
+        <v>0.8527481995555151</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.8091341173605485</v>
+        <v>0.6667352712681578</v>
       </c>
       <c r="C10">
-        <v>1.140849226550628</v>
+        <v>0.6831427384242876</v>
       </c>
       <c r="D10">
-        <v>0.0717781211201752</v>
+        <v>0.3345854164779478</v>
       </c>
       <c r="E10">
-        <v>0.3289136136874196</v>
+        <v>0.7414790481684866</v>
       </c>
       <c r="F10">
-        <v>-1.542627225396032</v>
+        <v>0.4426345089242327</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8872393595086412</v>
+        <v>0.6804618186670938</v>
       </c>
       <c r="C11">
-        <v>-0.5096222050200284</v>
+        <v>0.2813726942223435</v>
       </c>
       <c r="D11">
-        <v>3.526598839511348</v>
+        <v>0.9707661857210309</v>
       </c>
       <c r="E11">
-        <v>0.5562644130392456</v>
+        <v>0.7895794139447014</v>
       </c>
       <c r="F11">
-        <v>0.5486964500779717</v>
+        <v>0.833361162188576</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>-1.373071737580172</v>
+        <v>0.2832251344544932</v>
       </c>
       <c r="C12">
-        <v>0.2307949098366827</v>
+        <v>0.4616105409815359</v>
       </c>
       <c r="D12">
-        <v>-0.3960973025801267</v>
+        <v>0.2484294705629883</v>
       </c>
       <c r="E12">
-        <v>-0.2756017111254084</v>
+        <v>0.613582386605283</v>
       </c>
       <c r="F12">
-        <v>-1.203082265468011</v>
+        <v>0.506072448914742</v>
       </c>
     </row>
     <row r="13">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.1938974144900699</v>
+        <v>0.5586109568014758</v>
       </c>
       <c r="C13">
-        <v>0.3328318057154074</v>
+        <v>0.4864491218762149</v>
       </c>
       <c r="D13">
-        <v>0.589632156468865</v>
+        <v>0.4299445697937762</v>
       </c>
       <c r="E13">
-        <v>0.4250346197690015</v>
+        <v>0.7618152667544044</v>
       </c>
       <c r="F13">
-        <v>-0.9264574826065213</v>
+        <v>0.557754872293298</v>
       </c>
     </row>
     <row r="14">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.2901257440573673</v>
+        <v>0.5755225326521909</v>
       </c>
       <c r="C14">
-        <v>2.229214146490443</v>
+        <v>0.9480806304882167</v>
       </c>
       <c r="D14">
-        <v>0.01639119857918317</v>
+        <v>0.3243863069263112</v>
       </c>
       <c r="E14">
-        <v>0.5091591620342266</v>
+        <v>0.7796134063046073</v>
       </c>
       <c r="F14">
-        <v>-1.29047087925348</v>
+        <v>0.4897454398542877</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.9714433738257907</v>
+        <v>0.3538090110319278</v>
       </c>
       <c r="C15">
-        <v>-0.5450135249421363</v>
+        <v>0.2727574756263216</v>
       </c>
       <c r="D15">
-        <v>-0.4513903492212469</v>
+        <v>0.2382476475935109</v>
       </c>
       <c r="E15">
-        <v>-2.632738996221534</v>
+        <v>0.1148853689518591</v>
       </c>
       <c r="F15">
-        <v>0.8911810872872712</v>
+        <v>0.8973483286232086</v>
       </c>
     </row>
     <row r="16">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.7374629355567162</v>
+        <v>0.6541394729950698</v>
       </c>
       <c r="C16">
-        <v>-0.8593653910090008</v>
+        <v>0.1962356039302703</v>
       </c>
       <c r="D16">
-        <v>-0.6975881947068076</v>
+        <v>0.1929120578498177</v>
       </c>
       <c r="E16">
-        <v>0.2684699010929649</v>
+        <v>0.7286910364572697</v>
       </c>
       <c r="F16">
-        <v>0.8064218527814985</v>
+        <v>0.8815125723411581</v>
       </c>
     </row>
     <row r="17">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.005635491691848</v>
+        <v>0.7012692584184751</v>
       </c>
       <c r="C17">
-        <v>-0.300083312806355</v>
+        <v>0.3323802114543132</v>
       </c>
       <c r="D17">
-        <v>0.267328760525786</v>
+        <v>0.3705946818909939</v>
       </c>
       <c r="E17">
-        <v>0.736408792676054</v>
+        <v>0.8276923679249101</v>
       </c>
       <c r="F17">
-        <v>0.1766511507968151</v>
+        <v>0.7638511115179598</v>
       </c>
     </row>
     <row r="18">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.1073191915131849</v>
+        <v>0.5433953317201971</v>
       </c>
       <c r="C18">
-        <v>0.3125074092781055</v>
+        <v>0.481501605973306</v>
       </c>
       <c r="D18">
-        <v>3.685354954331901</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.6777312012079307</v>
+        <v>0.8152780125739252</v>
       </c>
       <c r="F18">
-        <v>0.2298251470268973</v>
+        <v>0.7737857274893309</v>
       </c>
     </row>
     <row r="19">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.7807965869793916</v>
+        <v>0.6617551131731581</v>
       </c>
       <c r="C19">
-        <v>0.5822319947450866</v>
+        <v>0.5471599727602386</v>
       </c>
       <c r="D19">
-        <v>-0.4303942693114147</v>
+        <v>0.2421139270206954</v>
       </c>
       <c r="E19">
-        <v>0.3509335329086895</v>
+        <v>0.7461377789577579</v>
       </c>
       <c r="F19">
-        <v>-0.02108758519883795</v>
+        <v>0.726907143713076</v>
       </c>
     </row>
     <row r="20">
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>-2.984647253700783</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>-1.038334660441413</v>
+        <v>0.1526695718770997</v>
       </c>
       <c r="D20">
-        <v>-0.7532626996383428</v>
+        <v>0.1826599920375386</v>
       </c>
       <c r="E20">
-        <v>0.7129500812149956</v>
+        <v>0.8227292333982993</v>
       </c>
       <c r="F20">
-        <v>0.7219440719518018</v>
+        <v>0.8657294006753448</v>
       </c>
     </row>
     <row r="21">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.5360342490763601</v>
+        <v>0.4303296621998755</v>
       </c>
       <c r="C21">
-        <v>-0.5409648466614176</v>
+        <v>0.2737430350372202</v>
       </c>
       <c r="D21">
-        <v>-0.2913883489694505</v>
+        <v>0.2677108828516406</v>
       </c>
       <c r="E21">
-        <v>-3.175755250745536</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.86380856599798</v>
+        <v>0.8922342595959224</v>
       </c>
     </row>
     <row r="22">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.4063299845123006</v>
+        <v>0.5959447600301896</v>
       </c>
       <c r="C22">
-        <v>2.001996043638239</v>
+        <v>0.8927695081747954</v>
       </c>
       <c r="D22">
-        <v>0.1814897394949501</v>
+        <v>0.354788034055473</v>
       </c>
       <c r="E22">
-        <v>-0.5138150572563704</v>
+        <v>0.563183843409735</v>
       </c>
       <c r="F22">
-        <v>0.7695404987637065</v>
+        <v>0.8746219469481457</v>
       </c>
     </row>
     <row r="23">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.8563031863206024</v>
+        <v>0.6750249640344412</v>
       </c>
       <c r="C23">
-        <v>0.07985359347791227</v>
+        <v>0.4248672819433277</v>
       </c>
       <c r="D23">
-        <v>-0.09882127147767988</v>
+        <v>0.3031707464669821</v>
       </c>
       <c r="E23">
-        <v>-0.03484314060062363</v>
+        <v>0.664519420207174</v>
       </c>
       <c r="F23">
-        <v>0.1809550240747988</v>
+        <v>0.7646552137340356</v>
       </c>
     </row>
     <row r="24">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.5990597959660571</v>
+        <v>0.6298159166817741</v>
       </c>
       <c r="C24">
-        <v>0.05818658655457287</v>
+        <v>0.4195929377997095</v>
       </c>
       <c r="D24">
-        <v>1.988034228894652</v>
+        <v>0.6874504083489071</v>
       </c>
       <c r="E24">
-        <v>0.5911450193726406</v>
+        <v>0.7969590665692612</v>
       </c>
       <c r="F24">
-        <v>-0.06640576812515564</v>
+        <v>0.7184402468120938</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.306038872917258</v>
+        <v>0.7540634261053607</v>
       </c>
       <c r="C25">
-        <v>-1.199097035173115</v>
+        <v>0.1135355976885857</v>
       </c>
       <c r="D25">
-        <v>-0.7802079304008196</v>
+        <v>0.1776982186110183</v>
       </c>
       <c r="E25">
-        <v>-0.2759099608248732</v>
+        <v>0.6135171705456213</v>
       </c>
       <c r="F25">
-        <v>0.7871428711037681</v>
+        <v>0.8779106373190355</v>
       </c>
     </row>
     <row r="26">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>2.034431039193645</v>
+        <v>0.8820741629064713</v>
       </c>
       <c r="C26">
-        <v>-0.6179991170286399</v>
+        <v>0.2549907793977209</v>
       </c>
       <c r="D26">
-        <v>-0.9215189605022571</v>
+        <v>0.1516767931419917</v>
       </c>
       <c r="E26">
-        <v>0.7485929688408725</v>
+        <v>0.8302701610616857</v>
       </c>
       <c r="F26">
-        <v>0.07321498649418201</v>
+        <v>0.744525902905616</v>
       </c>
     </row>
     <row r="27">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.1019815888053183</v>
+        <v>0.5424572787220731</v>
       </c>
       <c r="C27">
-        <v>-0.07507477608071597</v>
+        <v>0.3871534647302241</v>
       </c>
       <c r="D27">
-        <v>0.03355126402642169</v>
+        <v>0.3275462114557624</v>
       </c>
       <c r="E27">
-        <v>1.398508629343769</v>
+        <v>0.9677721231528892</v>
       </c>
       <c r="F27">
-        <v>0.6177530835625883</v>
+        <v>0.8462631666002226</v>
       </c>
     </row>
     <row r="28">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.594050291796431</v>
+        <v>0.420133676138072</v>
       </c>
       <c r="C28">
-        <v>-1.665501295907702</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-0.935712462666892</v>
+        <v>0.1490631602326824</v>
       </c>
       <c r="E28">
-        <v>0.2461276646276278</v>
+        <v>0.7239641133529513</v>
       </c>
       <c r="F28">
-        <v>0.8553262585933286</v>
+        <v>0.8906494912393801</v>
       </c>
     </row>
     <row r="29">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>-0.2301951401386799</v>
+        <v>0.4840791277904374</v>
       </c>
       <c r="C29">
-        <v>0.5158523029247278</v>
+        <v>0.5310013339576286</v>
       </c>
       <c r="D29">
-        <v>0.8105435271984165</v>
+        <v>0.4706238342827063</v>
       </c>
       <c r="E29">
-        <v>0.1778275264938508</v>
+        <v>0.7095139260821483</v>
       </c>
       <c r="F29">
-        <v>-1.482211608280869</v>
+        <v>0.453922093030484</v>
       </c>
     </row>
     <row r="30">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>-1.19340893937022</v>
+        <v>0.3147998386309222</v>
       </c>
       <c r="C30">
-        <v>-1.520867573685911</v>
+        <v>0.03520781751117109</v>
       </c>
       <c r="D30">
-        <v>-0.8237612563986658</v>
+        <v>0.169678182060668</v>
       </c>
       <c r="E30">
-        <v>0.0581176769458624</v>
+        <v>0.6841870410802475</v>
       </c>
       <c r="F30">
-        <v>0.6362533730277624</v>
+        <v>0.8497196168245099</v>
       </c>
     </row>
     <row r="31">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.4914499746865646</v>
+        <v>0.6109041090775765</v>
       </c>
       <c r="C31">
-        <v>0.4855825526822297</v>
+        <v>0.5236328459848699</v>
       </c>
       <c r="D31">
-        <v>2.234745733786216</v>
+        <v>0.7328805848346274</v>
       </c>
       <c r="E31">
-        <v>1.134462450352289</v>
+        <v>0.9119081551021427</v>
       </c>
       <c r="F31">
-        <v>1.067616433198994</v>
+        <v>0.9303121366812792</v>
       </c>
     </row>
     <row r="32">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>-1.622188414114364</v>
+        <v>0.2394443103475994</v>
       </c>
       <c r="C32">
-        <v>-1.014647438508594</v>
+        <v>0.1584356917995227</v>
       </c>
       <c r="D32">
-        <v>-0.5489025543389052</v>
+        <v>0.2202914655745408</v>
       </c>
       <c r="E32">
-        <v>-0.8721437010322654</v>
+        <v>0.4873726349914916</v>
       </c>
       <c r="F32">
-        <v>0.557557598506832</v>
+        <v>0.8350167102561904</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.2399039847283912</v>
+        <v>0.5666963470988569</v>
       </c>
       <c r="C33">
-        <v>-0.619686533850302</v>
+        <v>0.2545800158315917</v>
       </c>
       <c r="D33">
-        <v>-0.6718809460117291</v>
+        <v>0.1976458656456602</v>
       </c>
       <c r="E33">
-        <v>-0.0386228255952981</v>
+        <v>0.6637197562900863</v>
       </c>
       <c r="F33">
-        <v>-1.476167156581327</v>
+        <v>0.4550513913839991</v>
       </c>
     </row>
     <row r="34">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>-2.082741055214232</v>
+        <v>0.1585048306930079</v>
       </c>
       <c r="C34">
-        <v>-0.4918281529080285</v>
+        <v>0.2857042548703013</v>
       </c>
       <c r="D34">
-        <v>-0.2936242232124178</v>
+        <v>0.2672991624436178</v>
       </c>
       <c r="E34">
-        <v>0.6005031736013869</v>
+        <v>0.7989389612636112</v>
       </c>
       <c r="F34">
-        <v>-0.1290055979748254</v>
+        <v>0.7067445813830994</v>
       </c>
     </row>
     <row r="35">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>-1.796875595717702</v>
+        <v>0.2087440421925085</v>
       </c>
       <c r="C35">
-        <v>-1.071996755784384</v>
+        <v>0.1444752940028046</v>
       </c>
       <c r="D35">
-        <v>-0.4899734348148768</v>
+        <v>0.2311428456157812</v>
       </c>
       <c r="E35">
-        <v>-1.668625103284744</v>
+        <v>0.3188619154711689</v>
       </c>
       <c r="F35">
-        <v>0.6350807135909879</v>
+        <v>0.8495005262540146</v>
       </c>
     </row>
     <row r="36">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.2912994153860335</v>
+        <v>0.5757287986425473</v>
       </c>
       <c r="C36">
-        <v>-0.1422230959591727</v>
+        <v>0.3708077207630109</v>
       </c>
       <c r="D36">
-        <v>0.2374896165812035</v>
+        <v>0.3651000148458514</v>
       </c>
       <c r="E36">
-        <v>0.2353733709284234</v>
+        <v>0.72168883892211</v>
       </c>
       <c r="F36">
-        <v>0.432290473930602</v>
+        <v>0.8116127747852144</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>1.101185702544869</v>
+        <v>0.7180616588026321</v>
       </c>
       <c r="C37">
-        <v>-1.107754767019785</v>
+        <v>0.1357708126771575</v>
       </c>
       <c r="D37">
-        <v>-0.5907171560239604</v>
+        <v>0.2125916027932445</v>
       </c>
       <c r="E37">
-        <v>-0.4916883466858582</v>
+        <v>0.5678651679306973</v>
       </c>
       <c r="F37">
-        <v>0.5654102601233341</v>
+        <v>0.836483840489839</v>
       </c>
     </row>
     <row r="38">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>1.878739789079593</v>
+        <v>0.8547123205318193</v>
       </c>
       <c r="C38">
-        <v>-0.2812294098292186</v>
+        <v>0.3369697688908177</v>
       </c>
       <c r="D38">
-        <v>0.5401354616961795</v>
+        <v>0.4208301039727709</v>
       </c>
       <c r="E38">
-        <v>0.7349372339942684</v>
+        <v>0.8273810318264364</v>
       </c>
       <c r="F38">
-        <v>0.2725722552014494</v>
+        <v>0.7817722647765283</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.05296980472259975</v>
+        <v>0.5338437393639561</v>
       </c>
       <c r="C39">
-        <v>0.603237412557372</v>
+        <v>0.5522732679566851</v>
       </c>
       <c r="D39">
-        <v>0.5604215868188722</v>
+        <v>0.4245656502535997</v>
       </c>
       <c r="E39">
-        <v>0.7607569308164242</v>
+        <v>0.8328436775040299</v>
       </c>
       <c r="F39">
-        <v>-1.75386010860005</v>
+        <v>0.4031693995862545</v>
       </c>
     </row>
     <row r="40">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.08759615179240804</v>
+        <v>0.5399291208471161</v>
       </c>
       <c r="C40">
-        <v>0.8958369537459304</v>
+        <v>0.6235000267772984</v>
       </c>
       <c r="D40">
-        <v>1.534795862882171</v>
+        <v>0.6039897729517186</v>
       </c>
       <c r="E40">
-        <v>0.9066103980361085</v>
+        <v>0.8637017397716681</v>
       </c>
       <c r="F40">
-        <v>0.04451874491796576</v>
+        <v>0.7391645202732511</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.7141460508096088</v>
+        <v>0.6500416645141763</v>
       </c>
       <c r="C41">
-        <v>0.6849127930381078</v>
+        <v>0.5721552971746813</v>
       </c>
       <c r="D41">
-        <v>0.3822759029276203</v>
+        <v>0.3917613841416237</v>
       </c>
       <c r="E41">
-        <v>0.2049556740114757</v>
+        <v>0.7152533992757726</v>
       </c>
       <c r="F41">
-        <v>-2.590775118894945</v>
+        <v>0.2468067069652277</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>-1.861994122172035</v>
+        <v>0.1972998354358164</v>
       </c>
       <c r="C42">
-        <v>-1.443329742133774</v>
+        <v>0.05408265376348905</v>
       </c>
       <c r="D42">
-        <v>-0.4975548291352492</v>
+        <v>0.2297467855409431</v>
       </c>
       <c r="E42">
-        <v>-0.1336083619523756</v>
+        <v>0.6436237678209403</v>
       </c>
       <c r="F42">
-        <v>0.6511793308783872</v>
+        <v>0.8525082667241565</v>
       </c>
     </row>
     <row r="43">
@@ -1298,19 +1298,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.6231682230525097</v>
+        <v>0.6340528341794309</v>
       </c>
       <c r="C43">
-        <v>1.48995708588787</v>
+        <v>0.7681251727725705</v>
       </c>
       <c r="D43">
-        <v>-0.4243900210266937</v>
+        <v>0.2432195668219638</v>
       </c>
       <c r="E43">
-        <v>0.616639799728798</v>
+        <v>0.8023529700171999</v>
       </c>
       <c r="F43">
-        <v>-0.7941362787955056</v>
+        <v>0.5824767370755485</v>
       </c>
     </row>
     <row r="44">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.6206549504439257</v>
+        <v>0.6336111409634652</v>
       </c>
       <c r="C44">
-        <v>1.894551878866919</v>
+        <v>0.8666146496272993</v>
       </c>
       <c r="D44">
-        <v>-0.3275010460574563</v>
+        <v>0.2610609854226393</v>
       </c>
       <c r="E44">
-        <v>0.1245518016915666</v>
+        <v>0.6982424378917012</v>
       </c>
       <c r="F44">
-        <v>0.5285658545272429</v>
+        <v>0.829600118252624</v>
       </c>
     </row>
     <row r="45">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>-1.171374583552797</v>
+        <v>0.3186722500237375</v>
       </c>
       <c r="C45">
-        <v>1.817817078532678</v>
+        <v>0.8479352932128857</v>
       </c>
       <c r="D45">
-        <v>-0.5961370731057276</v>
+        <v>0.2115935634449341</v>
       </c>
       <c r="E45">
-        <v>-0.7455876839610297</v>
+        <v>0.5141479563436152</v>
       </c>
       <c r="F45">
-        <v>0.5697686357491162</v>
+        <v>0.8372981255007639</v>
       </c>
     </row>
     <row r="46">
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.4705184048215725</v>
+        <v>0.4418436952764199</v>
       </c>
       <c r="C46">
-        <v>0.8024919242636904</v>
+        <v>0.6007772847147948</v>
       </c>
       <c r="D46">
-        <v>-0.4045981543087433</v>
+        <v>0.2468640989177554</v>
       </c>
       <c r="E46">
-        <v>-1.802324105806822</v>
+        <v>0.2905753603169244</v>
       </c>
       <c r="F46">
-        <v>0.2731456806348694</v>
+        <v>0.7818793991255172</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.4801507921386164</v>
+        <v>0.60891834268664</v>
       </c>
       <c r="C47">
-        <v>1.137597845375779</v>
+        <v>0.6823512630110518</v>
       </c>
       <c r="D47">
-        <v>-0.508531964775793</v>
+        <v>0.2277254237496606</v>
       </c>
       <c r="E47">
-        <v>0.9025276160839405</v>
+        <v>0.8628379499550337</v>
       </c>
       <c r="F47">
-        <v>-0.03735617214365163</v>
+        <v>0.7238676474338373</v>
       </c>
     </row>
     <row r="48">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.8303160953291293</v>
+        <v>0.37861131910101</v>
       </c>
       <c r="C48">
-        <v>0.6454752178131267</v>
+        <v>0.5625551089870677</v>
       </c>
       <c r="D48">
-        <v>-0.1998315799372483</v>
+        <v>0.2845704134901629</v>
       </c>
       <c r="E48">
-        <v>0.5623085732017027</v>
+        <v>0.7908581704542588</v>
       </c>
       <c r="F48">
-        <v>-0.932940699301306</v>
+        <v>0.5565435984999353</v>
       </c>
     </row>
     <row r="49">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.9317815479009401</v>
+        <v>0.688289852271547</v>
       </c>
       <c r="C49">
-        <v>-0.2447272280354575</v>
+        <v>0.3458554017543872</v>
       </c>
       <c r="D49">
-        <v>-0.4358473579695197</v>
+        <v>0.2411097793615139</v>
       </c>
       <c r="E49">
-        <v>-0.5866998372828739</v>
+        <v>0.5477636883507305</v>
       </c>
       <c r="F49">
-        <v>0.4132543988635367</v>
+        <v>0.8080562225453717</v>
       </c>
     </row>
     <row r="50">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.6078923186837022</v>
+        <v>0.6313681817846215</v>
       </c>
       <c r="C50">
-        <v>-1.259457956282307</v>
+        <v>0.0988420928643116</v>
       </c>
       <c r="D50">
-        <v>-0.8014763150922816</v>
+        <v>0.1737817961866811</v>
       </c>
       <c r="E50">
-        <v>0.473595665422192</v>
+        <v>0.7720892753132187</v>
       </c>
       <c r="F50">
-        <v>-1.253164229059113</v>
+        <v>0.4967155242778024</v>
       </c>
     </row>
     <row r="51">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.4493822300705997</v>
+        <v>0.6035109447449892</v>
       </c>
       <c r="C51">
-        <v>-1.144362290312231</v>
+        <v>0.1268595368016743</v>
       </c>
       <c r="D51">
-        <v>-0.8013859563729981</v>
+        <v>0.1737984351049426</v>
       </c>
       <c r="E51">
-        <v>-0.004638631842306784</v>
+        <v>0.6709097558625047</v>
       </c>
       <c r="F51">
-        <v>1.40057119776134</v>
+        <v>0.9925188158154296</v>
       </c>
     </row>
     <row r="52">
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.9177194783234968</v>
+        <v>0.6858185243648244</v>
       </c>
       <c r="C52">
-        <v>2.442498928073829</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>-0.07788015006752824</v>
+        <v>0.3070269056756507</v>
       </c>
       <c r="E52">
-        <v>0.5638832199073154</v>
+        <v>0.791191316775821</v>
       </c>
       <c r="F52">
-        <v>-0.1882314328056684</v>
+        <v>0.6956792869470303</v>
       </c>
     </row>
     <row r="53">
@@ -1518,19 +1518,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.1335669126191893</v>
+        <v>0.5010609834078437</v>
       </c>
       <c r="C53">
-        <v>1.132283094617962</v>
+        <v>0.6810575068114317</v>
       </c>
       <c r="D53">
-        <v>0.01794206015122124</v>
+        <v>0.3246718871020455</v>
       </c>
       <c r="E53">
-        <v>0.7056771831459373</v>
+        <v>0.8211905141223074</v>
       </c>
       <c r="F53">
-        <v>-1.149335839457895</v>
+        <v>0.5161140132149658</v>
       </c>
     </row>
     <row r="54">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.7398715002426289</v>
+        <v>0.3945064368586436</v>
       </c>
       <c r="C54">
-        <v>-0.627259350128521</v>
+        <v>0.2527365845109188</v>
       </c>
       <c r="D54">
-        <v>-0.4455030619271774</v>
+        <v>0.2393317498566351</v>
       </c>
       <c r="E54">
-        <v>-0.1570943438363841</v>
+        <v>0.6386548637200749</v>
       </c>
       <c r="F54">
-        <v>-1.994069625926579</v>
+        <v>0.3582905212529113</v>
       </c>
     </row>
     <row r="55">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>-0.4831902889875536</v>
+        <v>0.4396166844656941</v>
       </c>
       <c r="C55">
-        <v>0.3660102686803183</v>
+        <v>0.4945256703562327</v>
       </c>
       <c r="D55">
-        <v>2.210919235893418</v>
+        <v>0.7284931039800875</v>
       </c>
       <c r="E55">
-        <v>0.3995744818958333</v>
+        <v>0.7564286925795887</v>
       </c>
       <c r="F55">
-        <v>0.3256836068689998</v>
+        <v>0.791695176724964</v>
       </c>
     </row>
     <row r="56">
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.4395899325248406</v>
+        <v>0.447279196521686</v>
       </c>
       <c r="C56">
-        <v>-0.415658672095528</v>
+        <v>0.3042459969977338</v>
       </c>
       <c r="D56">
-        <v>-0.4437238142742885</v>
+        <v>0.2396593857117934</v>
       </c>
       <c r="E56">
-        <v>-1.921658992390666</v>
+        <v>0.2653278058288346</v>
       </c>
       <c r="F56">
-        <v>1.063736264723271</v>
+        <v>0.9295871961757034</v>
       </c>
     </row>
     <row r="57">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>-1.790850994903468</v>
+        <v>0.2098028311593161</v>
       </c>
       <c r="C57">
-        <v>-0.9806309243192004</v>
+        <v>0.1667162449481845</v>
       </c>
       <c r="D57">
-        <v>-0.1726008277997915</v>
+        <v>0.2895847636559054</v>
       </c>
       <c r="E57">
-        <v>0.01129426669899575</v>
+        <v>0.6742806621883101</v>
       </c>
       <c r="F57">
-        <v>-0.1083840367753024</v>
+        <v>0.7105973535230931</v>
       </c>
     </row>
     <row r="58">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.9999749211889113</v>
+        <v>0.7002744456866195</v>
       </c>
       <c r="C58">
-        <v>-0.4616300231546042</v>
+        <v>0.2930553084503704</v>
       </c>
       <c r="D58">
-        <v>2.850905826575788</v>
+        <v>0.8463421024529133</v>
       </c>
       <c r="E58">
-        <v>0.6169130592853459</v>
+        <v>0.8024107832496989</v>
       </c>
       <c r="F58">
-        <v>0.5437137480037398</v>
+        <v>0.8324302328788236</v>
       </c>
     </row>
     <row r="59">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>2.705439253715278</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>-0.8441868000610497</v>
+        <v>0.1999304895486649</v>
       </c>
       <c r="D59">
-        <v>0.07158111913320514</v>
+        <v>0.3345491399571588</v>
       </c>
       <c r="E59">
-        <v>0.6743900297056132</v>
+        <v>0.8145711244880213</v>
       </c>
       <c r="F59">
-        <v>0.5976862749616747</v>
+        <v>0.842514040121963</v>
       </c>
     </row>
     <row r="60">
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.3733174598364152</v>
+        <v>0.5901429985573439</v>
       </c>
       <c r="C60">
-        <v>-0.2607354431462653</v>
+        <v>0.341958562845432</v>
       </c>
       <c r="D60">
-        <v>-1.393785431484458</v>
+        <v>0.06471226696620698</v>
       </c>
       <c r="E60">
-        <v>0.07115962803845174</v>
+        <v>0.6869463127422675</v>
       </c>
       <c r="F60">
-        <v>1.030712716857571</v>
+        <v>0.9234173332856104</v>
       </c>
     </row>
     <row r="61">
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.3000540848291695</v>
+        <v>0.5772673814798602</v>
       </c>
       <c r="C61">
-        <v>1.116748384394008</v>
+        <v>0.6772759319874415</v>
       </c>
       <c r="D61">
-        <v>0.7986350594625445</v>
+        <v>0.4684309742814957</v>
       </c>
       <c r="E61">
-        <v>0.7073297862743592</v>
+        <v>0.8215401536009749</v>
       </c>
       <c r="F61">
-        <v>-0.09255091861739967</v>
+        <v>0.7135554902004173</v>
       </c>
     </row>
     <row r="62">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.6221099063484571</v>
+        <v>0.6338668411013515</v>
       </c>
       <c r="C62">
-        <v>-0.9990939343564121</v>
+        <v>0.1622218415814493</v>
       </c>
       <c r="D62">
-        <v>-0.7454528071447685</v>
+        <v>0.1840981284328134</v>
       </c>
       <c r="E62">
-        <v>-1.160076729259183</v>
+        <v>0.4264549517625205</v>
       </c>
       <c r="F62">
-        <v>0.6872225071547007</v>
+        <v>0.8592422935056725</v>
       </c>
     </row>
     <row r="63">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.4792849435367669</v>
+        <v>0.6087661747713156</v>
       </c>
       <c r="C63">
-        <v>-0.95884199566148</v>
+        <v>0.1720202681881352</v>
       </c>
       <c r="D63">
-        <v>-0.6706161143768061</v>
+        <v>0.1978787754340567</v>
       </c>
       <c r="E63">
-        <v>-0.4850855857357232</v>
+        <v>0.5692621070122395</v>
       </c>
       <c r="F63">
-        <v>0.06561187313957326</v>
+        <v>0.743105396328717</v>
       </c>
     </row>
     <row r="64">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.1929602761560958</v>
+        <v>0.5584462601254668</v>
       </c>
       <c r="C64">
-        <v>0.9201636843179424</v>
+        <v>0.6294218206540364</v>
       </c>
       <c r="D64">
-        <v>0.1879813004045952</v>
+        <v>0.3559834090256132</v>
       </c>
       <c r="E64">
-        <v>0.7773853779224823</v>
+        <v>0.8363617402967368</v>
       </c>
       <c r="F64">
-        <v>0.8926722147965074</v>
+        <v>0.8976269192919352</v>
       </c>
     </row>
     <row r="65">
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.08586048850386861</v>
+        <v>0.5396240879998515</v>
       </c>
       <c r="C65">
-        <v>-0.6351393973623987</v>
+        <v>0.2508183647435789</v>
       </c>
       <c r="D65">
-        <v>0.4622893534073586</v>
+        <v>0.4064952944151784</v>
       </c>
       <c r="E65">
-        <v>-0.005454014266564694</v>
+        <v>0.6707372462739477</v>
       </c>
       <c r="F65">
-        <v>0.4984183096687459</v>
+        <v>0.8239675854004211</v>
       </c>
     </row>
     <row r="66">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.394961387860051</v>
+        <v>0.5939467945093785</v>
       </c>
       <c r="C66">
-        <v>0.8772438385498563</v>
+        <v>0.6189739522441152</v>
       </c>
       <c r="D66">
-        <v>0.05221260436513564</v>
+        <v>0.3309825651248808</v>
       </c>
       <c r="E66">
-        <v>0.8357650988388652</v>
+        <v>0.8487130754932576</v>
       </c>
       <c r="F66">
-        <v>-0.8156873996828781</v>
+        <v>0.5784502932317902</v>
       </c>
     </row>
     <row r="67">
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="B67">
-        <v>-1.712936113609338</v>
+        <v>0.2234959237322641</v>
       </c>
       <c r="C67">
-        <v>-1.087311402197271</v>
+        <v>0.1407472887501553</v>
       </c>
       <c r="D67">
-        <v>-0.1018681738458162</v>
+        <v>0.3026096809731778</v>
       </c>
       <c r="E67">
-        <v>-1.278026252551303</v>
+        <v>0.4015004971062978</v>
       </c>
       <c r="F67">
-        <v>0.5747522576155159</v>
+        <v>0.8382292266573327</v>
       </c>
     </row>
     <row r="68">
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.3749430820418194</v>
+        <v>0.5904286923167069</v>
       </c>
       <c r="C68">
-        <v>-1.190475741616546</v>
+        <v>0.1156342571546296</v>
       </c>
       <c r="D68">
-        <v>-0.9509731601274248</v>
+        <v>0.1462530108672042</v>
       </c>
       <c r="E68">
-        <v>0.2070911532827036</v>
+        <v>0.7157052003441938</v>
       </c>
       <c r="F68">
-        <v>1.355248820916153</v>
+        <v>0.9840511353552579</v>
       </c>
     </row>
     <row r="69">
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.1562262769754145</v>
+        <v>0.5519904708975167</v>
       </c>
       <c r="C69">
-        <v>0.8513521286804748</v>
+        <v>0.612671199455001</v>
       </c>
       <c r="D69">
-        <v>0.7769108809011015</v>
+        <v>0.4644306206438028</v>
       </c>
       <c r="E69">
-        <v>0.3177254161629968</v>
+        <v>0.7391119731688141</v>
       </c>
       <c r="F69">
-        <v>-1.597487261547717</v>
+        <v>0.432384886364659</v>
       </c>
     </row>
     <row r="70">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.6053172179304849</v>
+        <v>0.4181535786264842</v>
       </c>
       <c r="C70">
-        <v>0.7083835429693014</v>
+        <v>0.5778687218707602</v>
       </c>
       <c r="D70">
-        <v>-0.3689271153431964</v>
+        <v>0.253432668131202</v>
       </c>
       <c r="E70">
-        <v>-2.006491591787411</v>
+        <v>0.2473798633876208</v>
       </c>
       <c r="F70">
-        <v>0.0115162559722154</v>
+        <v>0.7329985918680061</v>
       </c>
     </row>
     <row r="71">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B71">
-        <v>-0.6256161959693575</v>
+        <v>0.4145861499041938</v>
       </c>
       <c r="C71">
-        <v>-0.3711601989040982</v>
+        <v>0.3150781466484709</v>
       </c>
       <c r="D71">
-        <v>-0.6070435169151793</v>
+        <v>0.209585219053728</v>
       </c>
       <c r="E71">
-        <v>1.550836651061766</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.440613456140855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="B72">
-        <v>-1.540494394352175</v>
+        <v>0.2538015647857727</v>
       </c>
       <c r="C72">
-        <v>-0.585285402775296</v>
+        <v>0.2629541952861546</v>
       </c>
       <c r="D72">
-        <v>-0.5400365327052241</v>
+        <v>0.2219240806717628</v>
       </c>
       <c r="E72">
-        <v>1.28751075443451</v>
+        <v>0.9442884213196895</v>
       </c>
       <c r="F72">
-        <v>0.8407691065130434</v>
+        <v>0.8879297461420074</v>
       </c>
     </row>
     <row r="73">
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.3076194316853242</v>
+        <v>0.5785969477081231</v>
       </c>
       <c r="C73">
-        <v>0.9828555547436247</v>
+        <v>0.6446827425156523</v>
       </c>
       <c r="D73">
-        <v>-0.1573465391749255</v>
+        <v>0.292393732879681</v>
       </c>
       <c r="E73">
-        <v>0.5162876305701184</v>
+        <v>0.7811215687785382</v>
       </c>
       <c r="F73">
-        <v>-0.6401324004239705</v>
+        <v>0.6112496241668786</v>
       </c>
     </row>
     <row r="74">
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.08703604709735172</v>
+        <v>0.5398306856661524</v>
       </c>
       <c r="C74">
-        <v>0.8923084126083369</v>
+        <v>0.6226410830223799</v>
       </c>
       <c r="D74">
-        <v>0.07644534191351528</v>
+        <v>0.3354448521351234</v>
       </c>
       <c r="E74">
-        <v>-0.04532039249581284</v>
+        <v>0.6623027592148884</v>
       </c>
       <c r="F74">
-        <v>-0.9215278651998087</v>
+        <v>0.5586758836765609</v>
       </c>
     </row>
   </sheetData>
